--- a/raw_data/DOGE-USD_4h_process.xlsx
+++ b/raw_data/DOGE-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.0936808958649635</v>
+        <v>0.0823457688093185</v>
       </c>
       <c r="C2">
-        <v>0.09386409819126119</v>
+        <v>0.08273945748806</v>
       </c>
       <c r="D2">
-        <v>0.0930572301149368</v>
+        <v>0.0813883170485496</v>
       </c>
       <c r="E2">
-        <v>0.0935805290937423</v>
+        <v>0.08188595622777931</v>
       </c>
       <c r="F2">
-        <v>7795392</v>
+        <v>51806080</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.0935949310660362</v>
+        <v>0.081898882985115</v>
       </c>
       <c r="C3">
-        <v>0.0949005708098411</v>
+        <v>0.0828896835446357</v>
       </c>
       <c r="D3">
-        <v>0.0935949310660362</v>
+        <v>0.0818334370851516</v>
       </c>
       <c r="E3">
-        <v>0.09478659927845</v>
+        <v>0.08204164355993269</v>
       </c>
       <c r="F3">
-        <v>41276864</v>
+        <v>27426176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.0947909951210022</v>
+        <v>0.08204860240221019</v>
       </c>
       <c r="C4">
-        <v>0.09484788775444029</v>
+        <v>0.0825987085700035</v>
       </c>
       <c r="D4">
-        <v>0.0931989103555679</v>
+        <v>0.0815511345863342</v>
       </c>
       <c r="E4">
-        <v>0.09338276833295819</v>
+        <v>0.08228316158056249</v>
       </c>
       <c r="F4">
-        <v>19224320</v>
+        <v>38887104</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.0933857038617134</v>
+        <v>0.08227731287479401</v>
       </c>
       <c r="C5">
-        <v>0.0939739644527435</v>
+        <v>0.0829925090074539</v>
       </c>
       <c r="D5">
-        <v>0.093174785375595</v>
+        <v>0.0821716487407684</v>
       </c>
       <c r="E5">
-        <v>0.0936763435602188</v>
+        <v>0.08254235237836829</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36926272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.09367856383323669</v>
+        <v>0.0825387760996818</v>
       </c>
       <c r="C6">
-        <v>0.09367856383323669</v>
+        <v>0.08283513784408569</v>
       </c>
       <c r="D6">
-        <v>0.0913842618465423</v>
+        <v>0.0819255486130714</v>
       </c>
       <c r="E6">
-        <v>0.0914880409836769</v>
+        <v>0.0826393961906433</v>
       </c>
       <c r="F6">
-        <v>38589536</v>
+        <v>32422656</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.0914741232991218</v>
+        <v>0.0826546251773834</v>
       </c>
       <c r="C7">
-        <v>0.09211356192827221</v>
+        <v>0.0845022797584533</v>
       </c>
       <c r="D7">
-        <v>0.09137726575136181</v>
+        <v>0.08253380656242371</v>
       </c>
       <c r="E7">
-        <v>0.0920645594596862</v>
+        <v>0.0842569023370742</v>
       </c>
       <c r="F7">
-        <v>634080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.09205051511526099</v>
+        <v>0.0842528864741325</v>
       </c>
       <c r="C8">
-        <v>0.0922203510999679</v>
+        <v>0.0843646302819252</v>
       </c>
       <c r="D8">
-        <v>0.0913921147584915</v>
+        <v>0.0834506079554557</v>
       </c>
       <c r="E8">
-        <v>0.09187896549701691</v>
+        <v>0.08397869020700451</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.09188286960124969</v>
+        <v>0.08397713303565971</v>
       </c>
       <c r="C9">
-        <v>0.0923236683011055</v>
+        <v>0.08465529233217239</v>
       </c>
       <c r="D9">
-        <v>0.0907307490706443</v>
+        <v>0.08397713303565971</v>
       </c>
       <c r="E9">
-        <v>0.09209500998258589</v>
+        <v>0.0841240361332893</v>
       </c>
       <c r="F9">
-        <v>18484896</v>
+        <v>262976</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.09209068864583959</v>
+        <v>0.0841206312179565</v>
       </c>
       <c r="C10">
-        <v>0.0924237817525863</v>
+        <v>0.0847547575831413</v>
       </c>
       <c r="D10">
-        <v>0.0914830490946769</v>
+        <v>0.0821720138192176</v>
       </c>
       <c r="E10">
-        <v>0.0914830490946769</v>
+        <v>0.083149217069149</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>46337536</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.0914934799075126</v>
+        <v>0.08314478397369381</v>
       </c>
       <c r="C11">
-        <v>0.0929180383682251</v>
+        <v>0.083278551697731</v>
       </c>
       <c r="D11">
-        <v>0.0914787352085113</v>
+        <v>0.0827260687947273</v>
       </c>
       <c r="E11">
-        <v>0.0928920730948448</v>
+        <v>0.0829993709921836</v>
       </c>
       <c r="F11">
-        <v>7452608</v>
+        <v>862720</v>
       </c>
       <c r="L11">
-        <v>50.49737071868378</v>
+        <v>54.8641270312684</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.0928880721330642</v>
+        <v>0.0829960778355598</v>
       </c>
       <c r="C12">
-        <v>0.0930143967270851</v>
+        <v>0.0839684754610061</v>
       </c>
       <c r="D12">
-        <v>0.0913411527872085</v>
+        <v>0.0823606848716735</v>
       </c>
       <c r="E12">
-        <v>0.09146490693092341</v>
+        <v>0.0823606848716735</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10179072</v>
       </c>
       <c r="L12">
-        <v>38.33149805976522</v>
+        <v>43.28056700309201</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.09148531407117839</v>
+        <v>0.0823500007390976</v>
       </c>
       <c r="C13">
-        <v>0.091651938855648</v>
+        <v>0.08274314552545541</v>
       </c>
       <c r="D13">
-        <v>0.090302899479866</v>
+        <v>0.08158032596111291</v>
       </c>
       <c r="E13">
-        <v>0.0913382843136787</v>
+        <v>0.0818869322538375</v>
       </c>
       <c r="F13">
-        <v>31607232</v>
+        <v>3172832</v>
       </c>
       <c r="L13">
-        <v>37.43137973381346</v>
+        <v>36.79739781922398</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.0913374871015548</v>
+        <v>0.08194864541292191</v>
       </c>
       <c r="C14">
-        <v>0.09134363383054731</v>
+        <v>0.0822507515549659</v>
       </c>
       <c r="D14">
-        <v>0.08966724574565881</v>
+        <v>0.08123535662889481</v>
       </c>
       <c r="E14">
-        <v>0.0910300612449646</v>
+        <v>0.0817860439419746</v>
       </c>
       <c r="F14">
-        <v>24656704</v>
+        <v>20512448</v>
       </c>
       <c r="L14">
-        <v>35.16975996339922</v>
+        <v>35.52260112821826</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.0910310223698616</v>
+        <v>0.0817768350243568</v>
       </c>
       <c r="C15">
-        <v>0.0914008840918541</v>
+        <v>0.08281750231981271</v>
       </c>
       <c r="D15">
-        <v>0.0905998647212982</v>
+        <v>0.0817615762352943</v>
       </c>
       <c r="E15">
-        <v>0.0907585397362709</v>
+        <v>0.0827730447053909</v>
       </c>
       <c r="F15">
-        <v>1434496</v>
+        <v>7626816</v>
       </c>
       <c r="L15">
-        <v>33.18280306479752</v>
+        <v>53.32080963124611</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.0907565504312515</v>
+        <v>0.08277276158332821</v>
       </c>
       <c r="C16">
-        <v>0.0909019410610199</v>
+        <v>0.08277276158332821</v>
       </c>
       <c r="D16">
-        <v>0.09032527357339851</v>
+        <v>0.0820194482803344</v>
       </c>
       <c r="E16">
-        <v>0.09054646641016</v>
+        <v>0.08226659148931501</v>
       </c>
       <c r="F16">
-        <v>9546816</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>31.61343413683537</v>
+        <v>45.9921163994416</v>
       </c>
       <c r="M16">
-        <v>33.15354324074407</v>
+        <v>48.02686098146357</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1335,25 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.0905445292592048</v>
+        <v>0.08226832002401351</v>
       </c>
       <c r="C17">
-        <v>0.09058394283056249</v>
+        <v>0.0823445320129394</v>
       </c>
       <c r="D17">
-        <v>0.0895934179425239</v>
+        <v>0.07885412126779549</v>
       </c>
       <c r="E17">
-        <v>0.0899739265441894</v>
+        <v>0.0801068544387817</v>
       </c>
       <c r="F17">
-        <v>3427904</v>
+        <v>91176768</v>
       </c>
       <c r="L17">
-        <v>27.64274926459698</v>
+        <v>27.71624058647484</v>
       </c>
       <c r="M17">
-        <v>30.06148912178918</v>
+        <v>31.62013290632406</v>
       </c>
       <c r="N17" t="s">
         <v>195</v>
@@ -1364,25 +1364,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.0899774134159088</v>
+        <v>0.0801201909780502</v>
       </c>
       <c r="C18">
-        <v>0.0908773466944694</v>
+        <v>0.0807498022913932</v>
       </c>
       <c r="D18">
-        <v>0.0898696407675743</v>
+        <v>0.0799541547894477</v>
       </c>
       <c r="E18">
-        <v>0.09081981331110001</v>
+        <v>0.080703005194664</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3383680</v>
       </c>
       <c r="L18">
-        <v>40.13940477880559</v>
+        <v>35.65605303729943</v>
       </c>
       <c r="M18">
-        <v>39.09870843954906</v>
+        <v>37.92392565247172</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1390,25 +1390,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.09082102030515669</v>
+        <v>0.080704428255558</v>
       </c>
       <c r="C19">
-        <v>0.0910205021500587</v>
+        <v>0.0816965699195861</v>
       </c>
       <c r="D19">
-        <v>0.09064469486474989</v>
+        <v>0.0803898125886917</v>
       </c>
       <c r="E19">
-        <v>0.09064469486474989</v>
+        <v>0.0815798491239547</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>38.58727497626993</v>
+        <v>45.55224696263913</v>
       </c>
       <c r="M19">
-        <v>38.0038685893407</v>
+        <v>45.83353527087399</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1416,25 +1416,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.09064657241106031</v>
+        <v>0.0815785750746727</v>
       </c>
       <c r="C20">
-        <v>0.09068113565444939</v>
+        <v>0.0816591009497642</v>
       </c>
       <c r="D20">
-        <v>0.09005323797464369</v>
+        <v>0.0808377414941787</v>
       </c>
       <c r="E20">
-        <v>0.0901637449860572</v>
+        <v>0.0809552446007728</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>34.46907708813008</v>
+        <v>40.5538787538071</v>
       </c>
       <c r="M20">
-        <v>35.09709031368499</v>
+        <v>41.75241054583341</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1442,28 +1442,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.09014555811882009</v>
+        <v>0.0809548571705818</v>
       </c>
       <c r="C21">
-        <v>0.0904879868030548</v>
+        <v>0.0810466706752777</v>
       </c>
       <c r="D21">
-        <v>0.08951914310455319</v>
+        <v>0.08028502017259589</v>
       </c>
       <c r="E21">
-        <v>0.08971093595027919</v>
+        <v>0.08066698163747781</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5546816</v>
       </c>
       <c r="H21">
-        <v>0.0916889656335115</v>
+        <v>0.08224929794669146</v>
       </c>
       <c r="L21">
-        <v>30.96841734509821</v>
+        <v>38.36801058016312</v>
       </c>
       <c r="M21">
-        <v>32.57118208943267</v>
+        <v>39.98295442322095</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1471,31 +1471,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.0897140279412269</v>
+        <v>0.0806675851345062</v>
       </c>
       <c r="C22">
-        <v>0.090700551867485</v>
+        <v>0.08147420734167091</v>
       </c>
       <c r="D22">
-        <v>0.0897140279412269</v>
+        <v>0.0806478187441825</v>
       </c>
       <c r="E22">
-        <v>0.09043024480342859</v>
+        <v>0.080864280462265</v>
       </c>
       <c r="F22">
-        <v>2782480</v>
+        <v>10039136</v>
       </c>
       <c r="G22">
-        <v>0.09162902654636472</v>
+        <v>0.08218334473314735</v>
       </c>
       <c r="H22">
-        <v>0.09153145141899582</v>
+        <v>0.08219821415841574</v>
       </c>
       <c r="L22">
-        <v>41.57285728549986</v>
+        <v>40.82399379121043</v>
       </c>
       <c r="M22">
-        <v>39.96298758643621</v>
+        <v>41.80095670572849</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1503,31 +1503,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.0904304385185241</v>
+        <v>0.0808590948581695</v>
       </c>
       <c r="C23">
-        <v>0.09081604331731789</v>
+        <v>0.081291489303112</v>
       </c>
       <c r="D23">
-        <v>0.0902982354164123</v>
+        <v>0.08077343553304669</v>
       </c>
       <c r="E23">
-        <v>0.0904136896133422</v>
+        <v>0.0808178931474685</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.09151854137063541</v>
+        <v>0.08205921277081291</v>
       </c>
       <c r="H23">
-        <v>0.09131280593574043</v>
+        <v>0.08213702663779253</v>
       </c>
       <c r="L23">
-        <v>41.40815596340109</v>
+        <v>40.3981911176034</v>
       </c>
       <c r="M23">
-        <v>39.85469768631941</v>
+        <v>41.48279548442828</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1535,31 +1535,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.0904150754213333</v>
+        <v>0.0808194354176521</v>
       </c>
       <c r="C24">
-        <v>0.0906505808234214</v>
+        <v>0.0811892747879028</v>
       </c>
       <c r="D24">
-        <v>0.0900702849030494</v>
+        <v>0.07986096292734141</v>
       </c>
       <c r="E24">
-        <v>0.0902039855718612</v>
+        <v>0.08015201985836019</v>
       </c>
       <c r="F24">
-        <v>6486336</v>
+        <v>12924992</v>
       </c>
       <c r="G24">
-        <v>0.09139903629801957</v>
+        <v>0.08188583159695356</v>
       </c>
       <c r="H24">
-        <v>0.09115386679768558</v>
+        <v>0.08203046955168242</v>
       </c>
       <c r="L24">
-        <v>39.19533275397542</v>
+        <v>34.57455332424797</v>
       </c>
       <c r="M24">
-        <v>38.43399612061348</v>
+        <v>37.11567269081991</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1567,31 +1567,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.09019167721271509</v>
+        <v>0.0801485031843185</v>
       </c>
       <c r="C25">
-        <v>0.0906521901488304</v>
+        <v>0.0807385817170143</v>
       </c>
       <c r="D25">
-        <v>0.0901364833116531</v>
+        <v>0.0795929580926895</v>
       </c>
       <c r="E25">
-        <v>0.0902810394763946</v>
+        <v>0.07975497841835021</v>
       </c>
       <c r="F25">
-        <v>4918576</v>
+        <v>3392896</v>
       </c>
       <c r="G25">
-        <v>0.09129740022332639</v>
+        <v>0.08169211767162599</v>
       </c>
       <c r="H25">
-        <v>0.09098410159349438</v>
+        <v>0.08189110085368151</v>
       </c>
       <c r="L25">
-        <v>40.50949461286916</v>
+        <v>31.52597262151412</v>
       </c>
       <c r="M25">
-        <v>39.29035064750921</v>
+        <v>34.76547455819601</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1599,31 +1599,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.0902750492095947</v>
+        <v>0.0797561407089233</v>
       </c>
       <c r="C26">
-        <v>0.09029354900121681</v>
+        <v>0.0802055522799491</v>
       </c>
       <c r="D26">
-        <v>0.08897052705287931</v>
+        <v>0.0793511793017387</v>
       </c>
       <c r="E26">
-        <v>0.089461550116539</v>
+        <v>0.0801317542791366</v>
       </c>
       <c r="F26">
-        <v>28145520</v>
+        <v>19789600</v>
       </c>
       <c r="G26">
-        <v>0.09113050475907297</v>
+        <v>0.08155026645412695</v>
       </c>
       <c r="H26">
-        <v>0.09088277705013749</v>
+        <v>0.08176571875810618</v>
       </c>
       <c r="L26">
-        <v>32.18638924843817</v>
+        <v>37.41707699807448</v>
       </c>
       <c r="M26">
-        <v>33.89111972795903</v>
+        <v>38.73030634321952</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1631,31 +1631,34 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.0894732549786567</v>
+        <v>0.0801321417093277</v>
       </c>
       <c r="C27">
-        <v>0.0901815444231033</v>
+        <v>0.080134741961956</v>
       </c>
       <c r="D27">
-        <v>0.0892932116985321</v>
+        <v>0.0776350274682045</v>
       </c>
       <c r="E27">
-        <v>0.08936206996440881</v>
+        <v>0.07822314649820319</v>
       </c>
       <c r="F27">
-        <v>13556272</v>
+        <v>44505248</v>
       </c>
       <c r="G27">
-        <v>0.09096973795955804</v>
+        <v>0.08124780100358843</v>
       </c>
       <c r="H27">
-        <v>0.09074765257537361</v>
+        <v>0.08146403096616264</v>
       </c>
       <c r="L27">
-        <v>31.30791633309687</v>
+        <v>25.10717040996888</v>
       </c>
       <c r="M27">
-        <v>33.29301541471605</v>
+        <v>29.08635747723782</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1663,31 +1666,34 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.08936265110969541</v>
+        <v>0.07822797447443</v>
       </c>
       <c r="C28">
-        <v>0.0897136107087135</v>
+        <v>0.0787217542529106</v>
       </c>
       <c r="D28">
-        <v>0.0888381600379943</v>
+        <v>0.07497205585241309</v>
       </c>
       <c r="E28">
-        <v>0.0896496847271919</v>
+        <v>0.07604484260082239</v>
       </c>
       <c r="F28">
-        <v>6770816</v>
+        <v>129224640</v>
       </c>
       <c r="G28">
-        <v>0.09084973312025203</v>
+        <v>0.08077480478515514</v>
       </c>
       <c r="H28">
-        <v>0.09063618853688235</v>
+        <v>0.08106733858585354</v>
       </c>
       <c r="L28">
-        <v>36.90874797787701</v>
+        <v>17.65108822560948</v>
       </c>
       <c r="M28">
-        <v>36.76750300755342</v>
+        <v>22.27050125224941</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1695,31 +1701,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.0896501541137695</v>
+        <v>0.0760493949055671</v>
       </c>
       <c r="C29">
-        <v>0.0901074483990669</v>
+        <v>0.0785744935274124</v>
       </c>
       <c r="D29">
-        <v>0.0895163267850875</v>
+        <v>0.07581914216279979</v>
       </c>
       <c r="E29">
-        <v>0.08996168524026869</v>
+        <v>0.0777177959680557</v>
       </c>
       <c r="F29">
-        <v>8949040</v>
+        <v>36789408</v>
       </c>
       <c r="G29">
-        <v>0.090769001494799</v>
+        <v>0.08049689489269156</v>
       </c>
       <c r="H29">
-        <v>0.09052952229976649</v>
+        <v>0.08074702657759183</v>
       </c>
       <c r="L29">
-        <v>42.61846574041301</v>
+        <v>34.46608902339955</v>
       </c>
       <c r="M29">
-        <v>40.39440091501563</v>
+        <v>34.88967686849413</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1727,31 +1733,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.08996082842350001</v>
+        <v>0.07772243767976759</v>
       </c>
       <c r="C30">
-        <v>0.0911799892783165</v>
+        <v>0.0782230272889137</v>
       </c>
       <c r="D30">
-        <v>0.08996082842350001</v>
+        <v>0.0772577673196792</v>
       </c>
       <c r="E30">
-        <v>0.0911344066262245</v>
+        <v>0.0782230272889137</v>
       </c>
       <c r="F30">
-        <v>15828064</v>
+        <v>6583872</v>
       </c>
       <c r="G30">
-        <v>0.0908022201431104</v>
+        <v>0.08029017965598448</v>
       </c>
       <c r="H30">
-        <v>0.09051209017634387</v>
+        <v>0.08050071708858007</v>
       </c>
       <c r="L30">
-        <v>58.499820038613</v>
+        <v>38.71751249794909</v>
       </c>
       <c r="M30">
-        <v>51.62578227936084</v>
+        <v>38.15510469891758</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1759,34 +1765,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.09112858772277831</v>
+        <v>0.0782350450754165</v>
       </c>
       <c r="C31">
-        <v>0.09184931218624109</v>
+        <v>0.0794046968221664</v>
       </c>
       <c r="D31">
-        <v>0.090885542333126</v>
+        <v>0.0782350450754165</v>
       </c>
       <c r="E31">
-        <v>0.0917851105332374</v>
+        <v>0.0791686177253723</v>
       </c>
       <c r="F31">
-        <v>24591488</v>
+        <v>34391168</v>
       </c>
       <c r="G31">
-        <v>0.09089157381494012</v>
+        <v>0.08018821948047428</v>
       </c>
       <c r="H31">
-        <v>0.09045674204826351</v>
+        <v>0.08030917942523952</v>
       </c>
       <c r="I31">
-        <v>0.09121542597810423</v>
+        <v>0.0812028105060259</v>
       </c>
       <c r="L31">
-        <v>64.61339652156482</v>
+        <v>46.08237078707167</v>
       </c>
       <c r="M31">
-        <v>56.5212725713882</v>
+        <v>43.83278124093869</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1794,34 +1800,34 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.0917858183383941</v>
+        <v>0.07916929572820661</v>
       </c>
       <c r="C32">
-        <v>0.092045821249485</v>
+        <v>0.08120186626911161</v>
       </c>
       <c r="D32">
-        <v>0.0914473682641983</v>
+        <v>0.07906677573919289</v>
       </c>
       <c r="E32">
-        <v>0.0920224413275718</v>
+        <v>0.0811998695135116</v>
       </c>
       <c r="F32">
-        <v>1973312</v>
+        <v>44698112</v>
       </c>
       <c r="G32">
-        <v>0.09099437995245209</v>
+        <v>0.08028018766529585</v>
       </c>
       <c r="H32">
-        <v>0.09048461876809594</v>
+        <v>0.08025113865733143</v>
       </c>
       <c r="I32">
-        <v>0.09116348971923188</v>
+        <v>0.08117994094888363</v>
       </c>
       <c r="L32">
-        <v>66.63045660388681</v>
+        <v>58.21731028000136</v>
       </c>
       <c r="M32">
-        <v>58.18348099148837</v>
+        <v>53.67190837289311</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1829,37 +1835,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.0920366868376731</v>
+        <v>0.0812041237950325</v>
       </c>
       <c r="C33">
-        <v>0.093390829861164</v>
+        <v>0.0817168429493904</v>
       </c>
       <c r="D33">
-        <v>0.0919748991727829</v>
+        <v>0.08062545210123059</v>
       </c>
       <c r="E33">
-        <v>0.0930843278765678</v>
+        <v>0.08137006312608711</v>
       </c>
       <c r="F33">
-        <v>41317280</v>
+        <v>17508800</v>
       </c>
       <c r="G33">
-        <v>0.09118437521828079</v>
+        <v>0.08037926725264051</v>
       </c>
       <c r="H33">
-        <v>0.09057192094624038</v>
+        <v>0.0802252952009439</v>
       </c>
       <c r="I33">
-        <v>0.09110674733916914</v>
+        <v>0.08115755493442212</v>
       </c>
       <c r="L33">
-        <v>74.07016958108643</v>
+        <v>59.08530711513497</v>
       </c>
       <c r="M33">
-        <v>64.68830977448648</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
+        <v>54.39280206061857</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1867,37 +1870,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.0930818766355514</v>
+        <v>0.0813780277967453</v>
       </c>
       <c r="C34">
-        <v>0.0938457027077674</v>
+        <v>0.08155271410942069</v>
       </c>
       <c r="D34">
-        <v>0.0928061828017234</v>
+        <v>0.07978484034538259</v>
       </c>
       <c r="E34">
-        <v>0.09365244954824441</v>
+        <v>0.0799773260951042</v>
       </c>
       <c r="F34">
-        <v>41405984</v>
+        <v>6807040</v>
       </c>
       <c r="G34">
-        <v>0.09140874561191384</v>
+        <v>0.08034272714740993</v>
       </c>
       <c r="H34">
-        <v>0.09070304036140438</v>
+        <v>0.08013485930860038</v>
       </c>
       <c r="I34">
-        <v>0.09111573671301201</v>
+        <v>0.08108069375157351</v>
       </c>
       <c r="L34">
-        <v>77.13802831916394</v>
+        <v>49.59944232515475</v>
       </c>
       <c r="M34">
-        <v>67.59284604872005</v>
-      </c>
-      <c r="O34" t="s">
-        <v>195</v>
+        <v>47.83334207349477</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1905,34 +1905,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.0936255902051925</v>
+        <v>0.0799813196063041</v>
       </c>
       <c r="C35">
-        <v>0.094329610466957</v>
+        <v>0.0810912027955055</v>
       </c>
       <c r="D35">
-        <v>0.0927126109600067</v>
+        <v>0.0799813196063041</v>
       </c>
       <c r="E35">
-        <v>0.09296005964279171</v>
+        <v>0.0804977044463157</v>
       </c>
       <c r="F35">
-        <v>63279072</v>
+        <v>3309760</v>
       </c>
       <c r="G35">
-        <v>0.09154977416017546</v>
+        <v>0.08035681599276501</v>
       </c>
       <c r="H35">
-        <v>0.09081311635673042</v>
+        <v>0.08002109229564662</v>
       </c>
       <c r="I35">
-        <v>0.09109186058243111</v>
+        <v>0.0810125388205051</v>
       </c>
       <c r="L35">
-        <v>66.37142488770182</v>
+        <v>52.78564992166309</v>
       </c>
       <c r="M35">
-        <v>61.00672012153794</v>
+        <v>50.24755655548351</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1940,34 +1940,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.0929580256342887</v>
+        <v>0.0805099457502365</v>
       </c>
       <c r="C36">
-        <v>0.0931041464209556</v>
+        <v>0.0805099457502365</v>
       </c>
       <c r="D36">
-        <v>0.09118042141199111</v>
+        <v>0.07864219695329661</v>
       </c>
       <c r="E36">
-        <v>0.0916826948523521</v>
+        <v>0.0789328441023826</v>
       </c>
       <c r="F36">
-        <v>50731744</v>
+        <v>3973312</v>
       </c>
       <c r="G36">
-        <v>0.09156185785946425</v>
+        <v>0.08022736400273024</v>
       </c>
       <c r="H36">
-        <v>0.09086992777884002</v>
+        <v>0.0798544049263</v>
       </c>
       <c r="I36">
-        <v>0.09109834904472029</v>
+        <v>0.08088898708422974</v>
       </c>
       <c r="L36">
-        <v>51.46325933464548</v>
+        <v>43.48546238950109</v>
       </c>
       <c r="M36">
-        <v>51.1120466782989</v>
+        <v>43.69834691907099</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1975,34 +1975,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.09168205410242081</v>
+        <v>0.07897005975246429</v>
       </c>
       <c r="C37">
-        <v>0.0919456630945205</v>
+        <v>0.0791929885745048</v>
       </c>
       <c r="D37">
-        <v>0.0912390053272247</v>
+        <v>0.0774205327033996</v>
       </c>
       <c r="E37">
-        <v>0.09140103310346601</v>
+        <v>0.07836217433214181</v>
       </c>
       <c r="F37">
-        <v>4263456</v>
+        <v>51310432</v>
       </c>
       <c r="G37">
-        <v>0.09154723742710076</v>
+        <v>0.08005780130540402</v>
       </c>
       <c r="H37">
-        <v>0.09094128310680386</v>
+        <v>0.07976717092096801</v>
       </c>
       <c r="I37">
-        <v>0.09107623149951297</v>
+        <v>0.080692496150732</v>
       </c>
       <c r="L37">
-        <v>48.74708779609114</v>
+        <v>40.55408178247876</v>
       </c>
       <c r="M37">
-        <v>49.21650989699913</v>
+        <v>41.57044044282474</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2010,34 +2010,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.09139891713857649</v>
+        <v>0.0783428028225898</v>
       </c>
       <c r="C38">
-        <v>0.091649129986763</v>
+        <v>0.082182377576828</v>
       </c>
       <c r="D38">
-        <v>0.0908037349581718</v>
+        <v>0.0772334262728691</v>
       </c>
       <c r="E38">
-        <v>0.091208703815937</v>
+        <v>0.0797662064433097</v>
       </c>
       <c r="F38">
-        <v>8187072</v>
+        <v>227775680</v>
       </c>
       <c r="G38">
-        <v>0.09151646164426769</v>
+        <v>0.08003129268157726</v>
       </c>
       <c r="H38">
-        <v>0.09096072763204568</v>
+        <v>0.07972033098340028</v>
       </c>
       <c r="I38">
-        <v>0.09105388944347696</v>
+        <v>0.0805520800252755</v>
       </c>
       <c r="L38">
-        <v>46.84768062161229</v>
+        <v>49.90160633377703</v>
       </c>
       <c r="M38">
-        <v>47.90992782321414</v>
+        <v>48.2476425571553</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2045,34 +2045,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.09120488166809081</v>
+        <v>0.0797596201300621</v>
       </c>
       <c r="C39">
-        <v>0.0919507220387458</v>
+        <v>0.08045729994773861</v>
       </c>
       <c r="D39">
-        <v>0.09120488166809081</v>
+        <v>0.0772639065980911</v>
       </c>
       <c r="E39">
-        <v>0.09143248200416559</v>
+        <v>0.0792639851570129</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>202935040</v>
       </c>
       <c r="G39">
-        <v>0.09150882713153113</v>
+        <v>0.07996153745207141</v>
       </c>
       <c r="H39">
-        <v>0.09100011698901649</v>
+        <v>0.07960453778505319</v>
       </c>
       <c r="I39">
-        <v>0.09103180517752962</v>
+        <v>0.08039007832606629</v>
       </c>
       <c r="L39">
-        <v>49.42704434492655</v>
+        <v>46.93190125925324</v>
       </c>
       <c r="M39">
-        <v>49.58690165497369</v>
+        <v>46.21326605357587</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2080,34 +2080,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.0914374366402626</v>
+        <v>0.07926299422979349</v>
       </c>
       <c r="C40">
-        <v>0.0919408276677131</v>
+        <v>0.0807090029120445</v>
       </c>
       <c r="D40">
-        <v>0.09142670035362239</v>
+        <v>0.07922150939702979</v>
       </c>
       <c r="E40">
-        <v>0.0915978327393531</v>
+        <v>0.07984469830989829</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2483456</v>
       </c>
       <c r="G40">
-        <v>0.09151691855042404</v>
+        <v>0.07995091571187385</v>
       </c>
       <c r="H40">
-        <v>0.09107182137668128</v>
+        <v>0.07954901047050947</v>
       </c>
       <c r="I40">
-        <v>0.09103563129901882</v>
+        <v>0.08027992770075792</v>
       </c>
       <c r="L40">
-        <v>51.38803030809881</v>
+        <v>50.74491962016247</v>
       </c>
       <c r="M40">
-        <v>50.84612324985313</v>
+        <v>48.89649159924142</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2115,34 +2115,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.0916792154312133</v>
+        <v>0.0798445492982864</v>
       </c>
       <c r="C41">
-        <v>0.0920928940176963</v>
+        <v>0.0799941644072532</v>
       </c>
       <c r="D41">
-        <v>0.0897261500358581</v>
+        <v>0.07846970856189719</v>
       </c>
       <c r="E41">
-        <v>0.0897261500358581</v>
+        <v>0.07871370762586589</v>
       </c>
       <c r="F41">
-        <v>38401536</v>
+        <v>6075840</v>
       </c>
       <c r="G41">
-        <v>0.09135412141273622</v>
+        <v>0.07983844224950948</v>
       </c>
       <c r="H41">
-        <v>0.09107258208096022</v>
+        <v>0.07945134676992889</v>
       </c>
       <c r="I41">
-        <v>0.09093010053038593</v>
+        <v>0.08013707225521399</v>
       </c>
       <c r="L41">
-        <v>34.40130442484409</v>
+        <v>43.84278549957158</v>
       </c>
       <c r="M41">
-        <v>38.97785216456642</v>
+        <v>44.26496483442805</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2150,37 +2150,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.08974931389093389</v>
+        <v>0.07871627062559119</v>
       </c>
       <c r="C42">
-        <v>0.08974931389093389</v>
+        <v>0.0796487852931022</v>
       </c>
       <c r="D42">
-        <v>0.0810180455446243</v>
+        <v>0.07824511826038361</v>
       </c>
       <c r="E42">
-        <v>0.0823065266013145</v>
+        <v>0.0792053714394569</v>
       </c>
       <c r="F42">
-        <v>474020160</v>
+        <v>3208576</v>
       </c>
       <c r="G42">
-        <v>0.09053161279351606</v>
+        <v>0.07978089035768651</v>
       </c>
       <c r="H42">
-        <v>0.09066639617085451</v>
+        <v>0.07936840131878847</v>
       </c>
       <c r="I42">
-        <v>0.09062482118606563</v>
+        <v>0.08003189514080677</v>
       </c>
       <c r="L42">
-        <v>13.90413592267677</v>
+        <v>47.34537385127573</v>
       </c>
       <c r="M42">
-        <v>19.52339149581186</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
+        <v>46.63156477726464</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2188,37 +2185,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.0823457688093185</v>
+        <v>0.0792068541049957</v>
       </c>
       <c r="C43">
-        <v>0.08273945748806</v>
+        <v>0.07923801243305199</v>
       </c>
       <c r="D43">
-        <v>0.0813883170485496</v>
+        <v>0.07668263465166091</v>
       </c>
       <c r="E43">
-        <v>0.08188595622777931</v>
+        <v>0.0782109722495079</v>
       </c>
       <c r="F43">
-        <v>101923328</v>
+        <v>14060160</v>
       </c>
       <c r="G43">
-        <v>0.08974564401481271</v>
+        <v>0.07963817052967026</v>
       </c>
       <c r="H43">
-        <v>0.09024000950157637</v>
+        <v>0.07923805527389044</v>
       </c>
       <c r="I43">
-        <v>0.09030974358320232</v>
+        <v>0.07990936314066246</v>
       </c>
       <c r="L43">
-        <v>13.39518375211354</v>
+        <v>41.46137854220228</v>
       </c>
       <c r="M43">
-        <v>18.94614198397381</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
+        <v>42.68391999313981</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2226,37 +2220,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.081898882985115</v>
+        <v>0.078218288719654</v>
       </c>
       <c r="C44">
-        <v>0.0828896835446357</v>
+        <v>0.0792582035064697</v>
       </c>
       <c r="D44">
-        <v>0.0818334370851516</v>
+        <v>0.0778059214353561</v>
       </c>
       <c r="E44">
-        <v>0.08204164355993269</v>
+        <v>0.0791838839650154</v>
       </c>
       <c r="F44">
-        <v>27426176</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.08904528033709634</v>
+        <v>0.07959687175106527</v>
       </c>
       <c r="H44">
-        <v>0.08983189240097995</v>
+        <v>0.0791896484792232</v>
       </c>
       <c r="I44">
-        <v>0.09001012966036792</v>
+        <v>0.07982262447476382</v>
       </c>
       <c r="L44">
-        <v>14.69556795471049</v>
+        <v>48.50541398236047</v>
       </c>
       <c r="M44">
-        <v>19.89040317596773</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
+        <v>47.37772508709023</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2264,37 +2255,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.08204860240221019</v>
+        <v>0.0791882053017616</v>
       </c>
       <c r="C45">
-        <v>0.0825987085700035</v>
+        <v>0.0844504758715629</v>
       </c>
       <c r="D45">
-        <v>0.0815511345863342</v>
+        <v>0.0779794007539749</v>
       </c>
       <c r="E45">
-        <v>0.08228316158056249</v>
+        <v>0.08297242969274519</v>
       </c>
       <c r="F45">
-        <v>38887104</v>
+        <v>87315392</v>
       </c>
       <c r="G45">
-        <v>0.08843054226832053</v>
+        <v>0.07990374065485435</v>
       </c>
       <c r="H45">
-        <v>0.08943199850618835</v>
+        <v>0.07935052104294296</v>
       </c>
       <c r="I45">
-        <v>0.08972761705517765</v>
+        <v>0.07982927064100896</v>
       </c>
       <c r="L45">
-        <v>16.87385968562677</v>
+        <v>66.28050213071424</v>
       </c>
       <c r="M45">
-        <v>21.4197735505929</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
+        <v>60.82977388676066</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2302,37 +2290,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.08227731287479401</v>
+        <v>0.08296945691108699</v>
       </c>
       <c r="C46">
-        <v>0.0829925090074539</v>
+        <v>0.0845655277371406</v>
       </c>
       <c r="D46">
-        <v>0.0821716487407684</v>
+        <v>0.0825520977377891</v>
       </c>
       <c r="E46">
-        <v>0.08254235237836829</v>
+        <v>0.0839201509952545</v>
       </c>
       <c r="F46">
-        <v>36926272</v>
+        <v>68030464</v>
       </c>
       <c r="G46">
-        <v>0.08789525227832487</v>
+        <v>0.080268868867618</v>
       </c>
       <c r="H46">
-        <v>0.0890860386192798</v>
+        <v>0.07953994087874885</v>
       </c>
       <c r="I46">
-        <v>0.08946081325411792</v>
+        <v>0.07988438929120695</v>
       </c>
       <c r="L46">
-        <v>19.35995496464259</v>
+        <v>69.2660823635789</v>
       </c>
       <c r="M46">
-        <v>23.11613370601418</v>
-      </c>
-      <c r="N46" t="s">
-        <v>195</v>
+        <v>63.35351026874682</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2340,37 +2325,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.0825387760996818</v>
+        <v>0.08393336087465279</v>
       </c>
       <c r="C47">
-        <v>0.08283513784408569</v>
+        <v>0.08437382429838181</v>
       </c>
       <c r="D47">
-        <v>0.0819255486130714</v>
+        <v>0.0823825299739837</v>
       </c>
       <c r="E47">
-        <v>0.0826393961906433</v>
+        <v>0.0838391855359077</v>
       </c>
       <c r="F47">
-        <v>32422656</v>
+        <v>38871424</v>
       </c>
       <c r="G47">
-        <v>0.08741744717944473</v>
+        <v>0.08059344311018979</v>
       </c>
       <c r="H47">
-        <v>0.08874990493059154</v>
+        <v>0.07982074283063408</v>
       </c>
       <c r="I47">
-        <v>0.08921632890899972</v>
+        <v>0.08000880032777782</v>
       </c>
       <c r="L47">
-        <v>20.36317200258331</v>
+        <v>68.68161560681833</v>
       </c>
       <c r="M47">
-        <v>23.77958500696906</v>
-      </c>
-      <c r="N47" t="s">
-        <v>195</v>
+        <v>62.98017792390448</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2378,3427 +2360,3433 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.0826546251773834</v>
+        <v>0.08383007347583769</v>
       </c>
       <c r="C48">
-        <v>0.0845022797584533</v>
+        <v>0.0860409289598465</v>
       </c>
       <c r="D48">
-        <v>0.08253380656242371</v>
+        <v>0.0837204903364181</v>
       </c>
       <c r="E48">
-        <v>0.0842569023370742</v>
+        <v>0.08599205315113061</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>52357120</v>
       </c>
       <c r="G48">
-        <v>0.08713012492104741</v>
+        <v>0.0810842258411844</v>
       </c>
       <c r="H48">
-        <v>0.08848026581108566</v>
+        <v>0.08031810335814948</v>
       </c>
       <c r="I48">
-        <v>0.08899756520986551</v>
+        <v>0.0801851019263267</v>
       </c>
       <c r="L48">
-        <v>35.42672905773011</v>
+        <v>74.99353629189179</v>
       </c>
       <c r="M48">
-        <v>34.00228281954973</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>68.32511088315971</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.0842528864741325</v>
+        <v>0.0859922468662262</v>
       </c>
       <c r="C49">
-        <v>0.0843646302819252</v>
+        <v>0.0876354426145553</v>
       </c>
       <c r="D49">
-        <v>0.0834506079554557</v>
+        <v>0.08446457982063291</v>
       </c>
       <c r="E49">
-        <v>0.08397869020700451</v>
+        <v>0.0847736224532127</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>122979264</v>
       </c>
       <c r="G49">
-        <v>0.08684363085613442</v>
+        <v>0.08141962553318698</v>
       </c>
       <c r="H49">
-        <v>0.08818111605942244</v>
+        <v>0.08067089468240733</v>
       </c>
       <c r="I49">
-        <v>0.08877536505460733</v>
+        <v>0.08029156103730198</v>
       </c>
       <c r="L49">
-        <v>34.17584935878053</v>
+        <v>66.46470899630552</v>
       </c>
       <c r="M49">
-        <v>33.17803153118243</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>62.79889171024488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.08397713303565971</v>
+        <v>0.0848176851868629</v>
       </c>
       <c r="C50">
-        <v>0.08465529233217239</v>
+        <v>0.0853448063135147</v>
       </c>
       <c r="D50">
-        <v>0.08397713303565971</v>
+        <v>0.08338735997676849</v>
       </c>
       <c r="E50">
-        <v>0.0841240361332893</v>
+        <v>0.0852782726287841</v>
       </c>
       <c r="F50">
-        <v>262976</v>
+        <v>36641792</v>
       </c>
       <c r="G50">
-        <v>0.08659639497223941</v>
+        <v>0.08177041163278671</v>
       </c>
       <c r="H50">
-        <v>0.08783059753477568</v>
+        <v>0.08102365694940086</v>
       </c>
       <c r="I50">
-        <v>0.08857404142618173</v>
+        <v>0.08043566197156901</v>
       </c>
       <c r="L50">
-        <v>35.51407318973136</v>
+        <v>68.15236819028478</v>
       </c>
       <c r="M50">
-        <v>34.07711344386226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>64.09423886985486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.0841206312179565</v>
+        <v>0.0852762833237648</v>
       </c>
       <c r="C51">
-        <v>0.0847547575831413</v>
+        <v>0.08560324460268021</v>
       </c>
       <c r="D51">
-        <v>0.0821720138192176</v>
+        <v>0.08400245755910871</v>
       </c>
       <c r="E51">
-        <v>0.083149217069149</v>
+        <v>0.0846242383122444</v>
       </c>
       <c r="F51">
-        <v>46337536</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.08628301516286756</v>
+        <v>0.08202985042182831</v>
       </c>
       <c r="H51">
-        <v>0.08739880286157126</v>
+        <v>0.08129643797874446</v>
       </c>
       <c r="I51">
-        <v>0.08835531746347741</v>
+        <v>0.08056757052739455</v>
       </c>
       <c r="L51">
-        <v>30.79084643679618</v>
+        <v>63.49355852235707</v>
       </c>
       <c r="M51">
-        <v>31.05876096102015</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>61.12370335794638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.08314478397369381</v>
+        <v>0.0846152156591415</v>
       </c>
       <c r="C52">
-        <v>0.083278551697731</v>
+        <v>0.0848474949598312</v>
       </c>
       <c r="D52">
-        <v>0.0827260687947273</v>
+        <v>0.08333861082792279</v>
       </c>
       <c r="E52">
-        <v>0.0829993709921836</v>
+        <v>0.0838810056447982</v>
       </c>
       <c r="F52">
-        <v>862720</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.08598450205644174</v>
+        <v>0.08219813726028011</v>
       </c>
       <c r="H52">
-        <v>0.08694764934480184</v>
+        <v>0.0814304947853088</v>
       </c>
       <c r="I52">
-        <v>0.08810762166976924</v>
+        <v>0.08066812803347899</v>
       </c>
       <c r="L52">
-        <v>30.09860348600387</v>
+        <v>58.39068976523136</v>
       </c>
       <c r="M52">
-        <v>30.60993740372026</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>57.84293896636601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.0829960778355598</v>
+        <v>0.0838716402649879</v>
       </c>
       <c r="C53">
-        <v>0.0839684754610061</v>
+        <v>0.0848942995071411</v>
       </c>
       <c r="D53">
-        <v>0.0823606848716735</v>
+        <v>0.0836040377616882</v>
       </c>
       <c r="E53">
-        <v>0.0823606848716735</v>
+        <v>0.0840117111802101</v>
       </c>
       <c r="F53">
-        <v>10179072</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.08565506413055372</v>
+        <v>0.08236300761663738</v>
       </c>
       <c r="H53">
-        <v>0.08641146719455714</v>
+        <v>0.08156257718801493</v>
       </c>
       <c r="I53">
-        <v>0.08783918817838028</v>
+        <v>0.08077458863457039</v>
       </c>
       <c r="L53">
-        <v>27.16963108649289</v>
+        <v>59.0419369423907</v>
       </c>
       <c r="M53">
-        <v>28.70584246399347</v>
-      </c>
-      <c r="N53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>58.2671648344344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.0823500007390976</v>
+        <v>0.0840196460485458</v>
       </c>
       <c r="C54">
-        <v>0.08274314552545541</v>
+        <v>0.0848612338304519</v>
       </c>
       <c r="D54">
-        <v>0.08158032596111291</v>
+        <v>0.08346123993396749</v>
       </c>
       <c r="E54">
-        <v>0.0818869322538375</v>
+        <v>0.0846553146839141</v>
       </c>
       <c r="F54">
-        <v>3172832</v>
+        <v>1931136</v>
       </c>
       <c r="G54">
-        <v>0.08531250668721589</v>
+        <v>0.08257139916820799</v>
       </c>
       <c r="H54">
-        <v>0.08582319132983679</v>
+        <v>0.08179647661745543</v>
       </c>
       <c r="I54">
-        <v>0.0875619530677795</v>
+        <v>0.08092469846208886</v>
       </c>
       <c r="L54">
-        <v>25.12901604324167</v>
+        <v>62.30977834316629</v>
       </c>
       <c r="M54">
-        <v>27.34695360241001</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>60.38131568475596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.08194864541292191</v>
+        <v>0.08464308083057399</v>
       </c>
       <c r="C55">
-        <v>0.0822507515549659</v>
+        <v>0.0853783935308456</v>
       </c>
       <c r="D55">
-        <v>0.08123535662889481</v>
+        <v>0.08252827823162071</v>
       </c>
       <c r="E55">
-        <v>0.0817860439419746</v>
+        <v>0.08252827823162071</v>
       </c>
       <c r="F55">
-        <v>20512448</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.08499191916492123</v>
+        <v>0.08256747908306369</v>
       </c>
       <c r="H55">
-        <v>0.08526449054479593</v>
+        <v>0.08189800530672069</v>
       </c>
       <c r="I55">
-        <v>0.08727878654996549</v>
+        <v>0.08101714178919787</v>
       </c>
       <c r="L55">
-        <v>24.68484574395059</v>
+        <v>48.05477903818107</v>
       </c>
       <c r="M55">
-        <v>27.05325151867863</v>
-      </c>
-      <c r="N55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>51.15753607039203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.0817768350243568</v>
+        <v>0.0825455784797668</v>
       </c>
       <c r="C56">
-        <v>0.08281750231981271</v>
+        <v>0.0828834325075149</v>
       </c>
       <c r="D56">
-        <v>0.0817615762352943</v>
+        <v>0.0800239890813827</v>
       </c>
       <c r="E56">
-        <v>0.0827730447053909</v>
+        <v>0.0814696848392486</v>
       </c>
       <c r="F56">
-        <v>7626816</v>
+        <v>48524224</v>
       </c>
       <c r="G56">
-        <v>0.08479020330496392</v>
+        <v>0.08246767960635322</v>
       </c>
       <c r="H56">
-        <v>0.08481900803744788</v>
+        <v>0.08202484734356399</v>
       </c>
       <c r="I56">
-        <v>0.08705583636959388</v>
+        <v>0.08106173947453495</v>
       </c>
       <c r="L56">
-        <v>36.95036086813327</v>
+        <v>42.59832740549641</v>
       </c>
       <c r="M56">
-        <v>34.46825138167555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>47.28604496205739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.08277276158332821</v>
+        <v>0.0814837142825126</v>
       </c>
       <c r="C57">
-        <v>0.08277276158332821</v>
+        <v>0.08187089115381239</v>
       </c>
       <c r="D57">
-        <v>0.0820194482803344</v>
+        <v>0.07824740558862681</v>
       </c>
       <c r="E57">
-        <v>0.08226659148931501</v>
+        <v>0.0800456032156944</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>64159232</v>
       </c>
       <c r="G57">
-        <v>0.08456078404899584</v>
+        <v>0.08224749084356606</v>
       </c>
       <c r="H57">
-        <v>0.08436228595674032</v>
+        <v>0.0821090187877416</v>
       </c>
       <c r="I57">
-        <v>0.08681932042042409</v>
+        <v>0.08112248803178465</v>
       </c>
       <c r="L57">
-        <v>33.77513326830471</v>
+        <v>36.35156406798222</v>
       </c>
       <c r="M57">
-        <v>32.63510657708061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>42.61395810073859</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.08226832002401351</v>
+        <v>0.0800362899899482</v>
       </c>
       <c r="C58">
-        <v>0.0823445320129394</v>
+        <v>0.080385647714138</v>
       </c>
       <c r="D58">
-        <v>0.07885412126779549</v>
+        <v>0.0789064094424247</v>
       </c>
       <c r="E58">
-        <v>0.0801068544387817</v>
+        <v>0.0801507234573364</v>
       </c>
       <c r="F58">
-        <v>91176768</v>
+        <v>6071808</v>
       </c>
       <c r="G58">
-        <v>0.08415588135715818</v>
+        <v>0.08205687562663609</v>
       </c>
       <c r="H58">
-        <v>0.08380719348788257</v>
+        <v>0.08212824463844295</v>
       </c>
       <c r="I58">
-        <v>0.08650122607747708</v>
+        <v>0.08125935072700179</v>
       </c>
       <c r="L58">
-        <v>23.91567766203955</v>
+        <v>37.11733248870836</v>
       </c>
       <c r="M58">
-        <v>26.22886576492518</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>43.06117945857289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.0801201909780502</v>
+        <v>0.0801544860005378</v>
       </c>
       <c r="C59">
-        <v>0.0807498022913932</v>
+        <v>0.08101137727499</v>
       </c>
       <c r="D59">
-        <v>0.0799541547894477</v>
+        <v>0.08014672994613641</v>
       </c>
       <c r="E59">
-        <v>0.080703005194664</v>
+        <v>0.0808724462985992</v>
       </c>
       <c r="F59">
-        <v>3383680</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.08384198352420416</v>
+        <v>0.0819492002331782</v>
       </c>
       <c r="H59">
-        <v>0.08327071964740748</v>
+        <v>0.08220866769552226</v>
       </c>
       <c r="I59">
-        <v>0.08619260340929026</v>
+        <v>0.0813645057380199</v>
       </c>
       <c r="L59">
-        <v>30.23941364160548</v>
+        <v>42.46403184061543</v>
       </c>
       <c r="M59">
-        <v>30.29624177510596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>46.16333248282483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.080704428255558</v>
+        <v>0.0808717980980873</v>
       </c>
       <c r="C60">
-        <v>0.0816965699195861</v>
+        <v>0.0809475108981132</v>
       </c>
       <c r="D60">
-        <v>0.0803898125886917</v>
+        <v>0.07981604337692259</v>
       </c>
       <c r="E60">
-        <v>0.0815798491239547</v>
+        <v>0.0801192596554756</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1439872</v>
       </c>
       <c r="G60">
-        <v>0.08363633494236329</v>
+        <v>0.08178284199884159</v>
       </c>
       <c r="H60">
-        <v>0.08276982046663756</v>
+        <v>0.08222239576280113</v>
       </c>
       <c r="I60">
-        <v>0.0858741181592146</v>
+        <v>0.08142771348357196</v>
       </c>
       <c r="L60">
-        <v>38.67362653624861</v>
+        <v>38.60980640022957</v>
       </c>
       <c r="M60">
-        <v>35.89475027943612</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>43.49979505361358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.0815785750746727</v>
+        <v>0.0801291018724441</v>
       </c>
       <c r="C61">
-        <v>0.0816591009497642</v>
+        <v>0.08124721795320509</v>
       </c>
       <c r="D61">
-        <v>0.0808377414941787</v>
+        <v>0.0800753533840179</v>
       </c>
       <c r="E61">
-        <v>0.0809552446007728</v>
+        <v>0.0811178088188171</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.08339259945676415</v>
+        <v>0.08172238443702118</v>
       </c>
       <c r="H61">
-        <v>0.08233127519488329</v>
+        <v>0.08234260082244868</v>
       </c>
       <c r="I61">
-        <v>0.08551312262813246</v>
+        <v>0.08149268652002011</v>
       </c>
       <c r="L61">
-        <v>35.25759071109265</v>
+        <v>45.92954060514099</v>
       </c>
       <c r="M61">
-        <v>33.81146997153524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>47.79994992323913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.0809548571705818</v>
+        <v>0.0811512544751167</v>
       </c>
       <c r="C62">
-        <v>0.0810466706752777</v>
+        <v>0.08125981688499451</v>
       </c>
       <c r="D62">
-        <v>0.08028502017259589</v>
+        <v>0.0806978568434715</v>
       </c>
       <c r="E62">
-        <v>0.08066698163747781</v>
+        <v>0.08113443106412881</v>
       </c>
       <c r="F62">
-        <v>5546816</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.08314481601864722</v>
+        <v>0.08166893413039461</v>
       </c>
       <c r="H62">
-        <v>0.08224929794669147</v>
+        <v>0.0824390538036823</v>
       </c>
       <c r="I62">
-        <v>0.08513460730512933</v>
+        <v>0.08149050523837403</v>
       </c>
       <c r="L62">
-        <v>33.71154469940628</v>
+        <v>46.05000549023854</v>
       </c>
       <c r="M62">
-        <v>32.86349064054723</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>47.871074184435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.0806675851345062</v>
+        <v>0.0810984820127487</v>
       </c>
       <c r="C63">
-        <v>0.08147420734167091</v>
+        <v>0.0811326652765274</v>
       </c>
       <c r="D63">
-        <v>0.0806478187441825</v>
+        <v>0.0806954056024551</v>
       </c>
       <c r="E63">
-        <v>0.080864280462265</v>
+        <v>0.0809283405542373</v>
       </c>
       <c r="F63">
-        <v>10039136</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.08293749460443064</v>
+        <v>0.08160160744165304</v>
       </c>
       <c r="H63">
-        <v>0.08219821415841574</v>
+        <v>0.08257492221891875</v>
       </c>
       <c r="I63">
-        <v>0.08472727239131923</v>
+        <v>0.0814757811526457</v>
       </c>
       <c r="L63">
-        <v>35.87662654704025</v>
+        <v>44.66209849371956</v>
       </c>
       <c r="M63">
-        <v>34.22283749316043</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>47.01572590881409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.0808590948581695</v>
+        <v>0.0809211581945419</v>
       </c>
       <c r="C64">
-        <v>0.081291489303112</v>
+        <v>0.0810286030173301</v>
       </c>
       <c r="D64">
-        <v>0.08077343553304669</v>
+        <v>0.08044186234474179</v>
       </c>
       <c r="E64">
-        <v>0.0808178931474685</v>
+        <v>0.08071514219045629</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>351424</v>
       </c>
       <c r="G64">
-        <v>0.08274480356288863</v>
+        <v>0.08152101969154424</v>
       </c>
       <c r="H64">
-        <v>0.08213702663779253</v>
+        <v>0.0826514851301908</v>
       </c>
       <c r="I64">
-        <v>0.0842994538446267</v>
+        <v>0.08150037502249077</v>
       </c>
       <c r="L64">
-        <v>35.56934285022733</v>
+        <v>43.14862090512131</v>
       </c>
       <c r="M64">
-        <v>34.04828494701678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>46.09810470923701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.0808194354176521</v>
+        <v>0.0807188674807548</v>
       </c>
       <c r="C65">
-        <v>0.0811892747879028</v>
+        <v>0.0826090574264526</v>
       </c>
       <c r="D65">
-        <v>0.07986096292734141</v>
+        <v>0.0803705677390098</v>
       </c>
       <c r="E65">
-        <v>0.08015201985836019</v>
+        <v>0.0826090574264526</v>
       </c>
       <c r="F65">
-        <v>12924992</v>
+        <v>36780352</v>
       </c>
       <c r="G65">
-        <v>0.08250909595338604</v>
+        <v>0.08161993221289955</v>
       </c>
       <c r="H65">
-        <v>0.08203046955168243</v>
+        <v>0.08263331651687618</v>
       </c>
       <c r="I65">
-        <v>0.08387251918514564</v>
+        <v>0.081570753455162</v>
       </c>
       <c r="L65">
-        <v>31.24733295282316</v>
+        <v>57.53118221326273</v>
       </c>
       <c r="M65">
-        <v>31.55987201164467</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>54.57894465571911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.0801485031843185</v>
+        <v>0.0826045796275138</v>
       </c>
       <c r="C66">
-        <v>0.0807385817170143</v>
+        <v>0.0838242694735527</v>
       </c>
       <c r="D66">
-        <v>0.0795929580926895</v>
+        <v>0.08189919590950009</v>
       </c>
       <c r="E66">
-        <v>0.07975497841835021</v>
+        <v>0.0830513089895248</v>
       </c>
       <c r="F66">
-        <v>3392896</v>
+        <v>80030656</v>
       </c>
       <c r="G66">
-        <v>0.08225872163201915</v>
+        <v>0.08175005737441093</v>
       </c>
       <c r="H66">
-        <v>0.08189110085368152</v>
+        <v>0.08258987441658969</v>
       </c>
       <c r="I66">
-        <v>0.08347492863734557</v>
+        <v>0.08170803561806675</v>
       </c>
       <c r="L66">
-        <v>28.89234107105363</v>
+        <v>60.17774636169698</v>
       </c>
       <c r="M66">
-        <v>30.14514230027129</v>
-      </c>
-      <c r="N66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>56.30769894463167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.0797561407089233</v>
+        <v>0.0830380246043205</v>
       </c>
       <c r="C67">
-        <v>0.0802055522799491</v>
+        <v>0.0830434262752533</v>
       </c>
       <c r="D67">
-        <v>0.0793511793017387</v>
+        <v>0.08203486353158949</v>
       </c>
       <c r="E67">
-        <v>0.0801317542791366</v>
+        <v>0.08208756893873211</v>
       </c>
       <c r="F67">
-        <v>19789600</v>
+        <v>17100928</v>
       </c>
       <c r="G67">
-        <v>0.08206536096357528</v>
+        <v>0.08178074024389469</v>
       </c>
       <c r="H67">
-        <v>0.08176571875810619</v>
+        <v>0.0825022935867309</v>
       </c>
       <c r="I67">
-        <v>0.08309928600986792</v>
+        <v>0.08183221543828642</v>
       </c>
       <c r="L67">
-        <v>34.18756324096255</v>
+        <v>52.2024601528664</v>
       </c>
       <c r="M67">
-        <v>33.20508678830676</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>51.69066191388189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.0801321417093277</v>
+        <v>0.08209054172039031</v>
       </c>
       <c r="C68">
-        <v>0.080134741961956</v>
+        <v>0.08236568421125411</v>
       </c>
       <c r="D68">
-        <v>0.0776350274682045</v>
+        <v>0.080868013203144</v>
       </c>
       <c r="E68">
-        <v>0.07822314649820319</v>
+        <v>0.080868013203144</v>
       </c>
       <c r="F68">
-        <v>44505248</v>
+        <v>23506688</v>
       </c>
       <c r="G68">
-        <v>0.08171606873945055</v>
+        <v>0.0816977650583719</v>
       </c>
       <c r="H68">
-        <v>0.08146403096616263</v>
+        <v>0.08224609158933158</v>
       </c>
       <c r="I68">
-        <v>0.08266643409927681</v>
+        <v>0.08186894233028089</v>
       </c>
       <c r="L68">
-        <v>24.0017311247373</v>
+        <v>43.91666842872003</v>
       </c>
       <c r="M68">
-        <v>26.80065450131864</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>46.49513585243511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.07822797447443</v>
+        <v>0.08088080585002889</v>
       </c>
       <c r="C69">
-        <v>0.0787217542529106</v>
+        <v>0.08124667406082151</v>
       </c>
       <c r="D69">
-        <v>0.07497205585241309</v>
+        <v>0.0798513144254684</v>
       </c>
       <c r="E69">
-        <v>0.07604484260082239</v>
+        <v>0.079944297671318</v>
       </c>
       <c r="F69">
-        <v>129224640</v>
+        <v>36422272</v>
       </c>
       <c r="G69">
-        <v>0.08120050272684798</v>
+        <v>0.08153835893227608</v>
       </c>
       <c r="H69">
-        <v>0.08106733858585354</v>
+        <v>0.08200462535023685</v>
       </c>
       <c r="I69">
-        <v>0.08215351278583202</v>
+        <v>0.08189161941409105</v>
       </c>
       <c r="L69">
-        <v>17.36054089957031</v>
+        <v>38.68463339921494</v>
       </c>
       <c r="M69">
-        <v>21.66475743156799</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>42.97203832938016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.0760493949055671</v>
+        <v>0.079968549311161</v>
       </c>
       <c r="C70">
-        <v>0.0785744935274124</v>
+        <v>0.08138095587491979</v>
       </c>
       <c r="D70">
-        <v>0.07581914216279979</v>
+        <v>0.079968549311161</v>
       </c>
       <c r="E70">
-        <v>0.0777177959680557</v>
+        <v>0.0811079144477844</v>
       </c>
       <c r="F70">
-        <v>36789408</v>
+        <v>2709536</v>
       </c>
       <c r="G70">
-        <v>0.08088389302150323</v>
+        <v>0.0814992276155041</v>
       </c>
       <c r="H70">
-        <v>0.08074702657759185</v>
+        <v>0.08179610744118686</v>
       </c>
       <c r="I70">
-        <v>0.08169084489345546</v>
+        <v>0.08193372661868727</v>
       </c>
       <c r="L70">
-        <v>33.30514012256385</v>
+        <v>47.54152218465035</v>
       </c>
       <c r="M70">
-        <v>32.38200473140855</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>48.28781185895544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.07772243767976759</v>
+        <v>0.0811107382178306</v>
       </c>
       <c r="C71">
-        <v>0.0782230272889137</v>
+        <v>0.0815535187721252</v>
       </c>
       <c r="D71">
-        <v>0.0772577673196792</v>
+        <v>0.0806138217449188</v>
       </c>
       <c r="E71">
-        <v>0.0782230272889137</v>
+        <v>0.0809365883469581</v>
       </c>
       <c r="F71">
-        <v>6583872</v>
+        <v>604320</v>
       </c>
       <c r="G71">
-        <v>0.08064199613672236</v>
+        <v>0.08144807859109084</v>
       </c>
       <c r="H71">
-        <v>0.08050071708858009</v>
+        <v>0.08161172494292254</v>
       </c>
       <c r="I71">
-        <v>0.08130740746855732</v>
+        <v>0.08200782264272367</v>
       </c>
       <c r="L71">
-        <v>37.40815283809837</v>
+        <v>46.4306035029406</v>
       </c>
       <c r="M71">
-        <v>35.26253766462948</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>47.58450888665085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.0782350450754165</v>
+        <v>0.0809380188584327</v>
       </c>
       <c r="C72">
-        <v>0.0794046968221664</v>
+        <v>0.0816198214888572</v>
       </c>
       <c r="D72">
-        <v>0.0782350450754165</v>
+        <v>0.0807506442070007</v>
       </c>
       <c r="E72">
-        <v>0.0791686177253723</v>
+        <v>0.0815247669816017</v>
       </c>
       <c r="F72">
-        <v>34391168</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.08050805264478145</v>
+        <v>0.08145505026295545</v>
       </c>
       <c r="H72">
-        <v>0.08030917942523952</v>
+        <v>0.08149391300976271</v>
       </c>
       <c r="I72">
-        <v>0.0812028105060259</v>
+        <v>0.08208513582746184</v>
       </c>
       <c r="L72">
-        <v>44.58601638503128</v>
+        <v>50.86503616433099</v>
       </c>
       <c r="M72">
-        <v>40.38157765243868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>50.26279342507308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.07916929572820661</v>
+        <v>0.08152192085981361</v>
       </c>
       <c r="C73">
-        <v>0.08120186626911161</v>
+        <v>0.0815852433443069</v>
       </c>
       <c r="D73">
-        <v>0.07906677573919289</v>
+        <v>0.0799895450472831</v>
       </c>
       <c r="E73">
-        <v>0.0811998695135116</v>
+        <v>0.0802367106080055</v>
       </c>
       <c r="F73">
-        <v>44698112</v>
+        <v>10861664</v>
       </c>
       <c r="G73">
-        <v>0.08057094508739328</v>
+        <v>0.08134429211250545</v>
       </c>
       <c r="H73">
-        <v>0.08025113865733141</v>
+        <v>0.08130516298115248</v>
       </c>
       <c r="I73">
-        <v>0.08117994094888364</v>
+        <v>0.08215266043941176</v>
       </c>
       <c r="L73">
-        <v>56.61069191330608</v>
+        <v>42.2488619088034</v>
       </c>
       <c r="M73">
-        <v>49.60093597419037</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>44.85724278987701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.0812041237950325</v>
+        <v>0.0802552253007888</v>
       </c>
       <c r="C74">
-        <v>0.0817168429493904</v>
+        <v>0.08163686096668241</v>
       </c>
       <c r="D74">
-        <v>0.08062545210123059</v>
+        <v>0.08025103807449339</v>
       </c>
       <c r="E74">
-        <v>0.08137006312608711</v>
+        <v>0.081131987273693</v>
       </c>
       <c r="F74">
-        <v>17508800</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.08064359218181999</v>
+        <v>0.08132499167261339</v>
       </c>
       <c r="H74">
-        <v>0.0802252952009439</v>
+        <v>0.08112899661064144</v>
       </c>
       <c r="I74">
-        <v>0.08115755493442212</v>
+        <v>0.08221759721636768</v>
       </c>
       <c r="L74">
-        <v>57.48040328709334</v>
+        <v>49.00361424839706</v>
       </c>
       <c r="M74">
-        <v>50.2945035956926</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>48.96555808175685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.0813780277967453</v>
+        <v>0.0811316817998886</v>
       </c>
       <c r="C75">
-        <v>0.08155271410942069</v>
+        <v>0.0812896341085434</v>
       </c>
       <c r="D75">
-        <v>0.07978484034538259</v>
+        <v>0.08016959577798841</v>
       </c>
       <c r="E75">
-        <v>0.0799773260951042</v>
+        <v>0.0811333805322647</v>
       </c>
       <c r="F75">
-        <v>6807040</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.0805830225375731</v>
+        <v>0.08130757247803624</v>
       </c>
       <c r="H75">
-        <v>0.08013485930860038</v>
+        <v>0.08105925172567363</v>
       </c>
       <c r="I75">
-        <v>0.08108069375157351</v>
+        <v>0.08215629557768499</v>
       </c>
       <c r="L75">
-        <v>48.52584930585761</v>
+        <v>49.01405486957333</v>
       </c>
       <c r="M75">
-        <v>44.85468184299013</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>48.97192960946545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.0799813196063041</v>
+        <v>0.0811063945293426</v>
       </c>
       <c r="C76">
-        <v>0.0810912027955055</v>
+        <v>0.0815609097480773</v>
       </c>
       <c r="D76">
-        <v>0.0799813196063041</v>
+        <v>0.0808583348989486</v>
       </c>
       <c r="E76">
-        <v>0.0804977044463157</v>
+        <v>0.0810357332229614</v>
       </c>
       <c r="F76">
-        <v>3309760</v>
+        <v>1000064</v>
       </c>
       <c r="G76">
-        <v>0.08057526634745879</v>
+        <v>0.08128285981848399</v>
       </c>
       <c r="H76">
-        <v>0.08002109229564662</v>
+        <v>0.08103755414485928</v>
       </c>
       <c r="I76">
-        <v>0.08101253882050509</v>
+        <v>0.08206014831860856</v>
       </c>
       <c r="L76">
-        <v>51.6893617533989</v>
+        <v>48.23541958399514</v>
       </c>
       <c r="M76">
-        <v>47.15456819110696</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>48.5147704480355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.0805099457502365</v>
+        <v>0.08104260265827171</v>
       </c>
       <c r="C77">
-        <v>0.0805099457502365</v>
+        <v>0.0811809450387954</v>
       </c>
       <c r="D77">
-        <v>0.07864219695329661</v>
+        <v>0.0802495032548904</v>
       </c>
       <c r="E77">
-        <v>0.0789328441023826</v>
+        <v>0.0808114930987358</v>
       </c>
       <c r="F77">
-        <v>3973312</v>
+        <v>3190896</v>
       </c>
       <c r="G77">
-        <v>0.08042595523427004</v>
+        <v>0.08124000829850689</v>
       </c>
       <c r="H77">
-        <v>0.0798544049263</v>
+        <v>0.08107584863901134</v>
       </c>
       <c r="I77">
-        <v>0.08088898708422973</v>
+        <v>0.0819592252373695</v>
       </c>
       <c r="L77">
-        <v>42.79215975201329</v>
+        <v>46.33382820679565</v>
       </c>
       <c r="M77">
-        <v>41.54354197698465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>47.42000881379301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.07897005975246429</v>
+        <v>0.0808247476816177</v>
       </c>
       <c r="C78">
-        <v>0.0791929885745048</v>
+        <v>0.0822670608758926</v>
       </c>
       <c r="D78">
-        <v>0.0774205327033996</v>
+        <v>0.0808247476816177</v>
       </c>
       <c r="E78">
-        <v>0.07836217433214181</v>
+        <v>0.0814861953258514</v>
       </c>
       <c r="F78">
-        <v>51310432</v>
+        <v>28818464</v>
       </c>
       <c r="G78">
-        <v>0.08023833878862202</v>
+        <v>0.08126238893735638</v>
       </c>
       <c r="H78">
-        <v>0.07976717092096801</v>
+        <v>0.08114262223243709</v>
       </c>
       <c r="I78">
-        <v>0.080692496150732</v>
+        <v>0.08180902997652685</v>
       </c>
       <c r="L78">
-        <v>39.96959548479909</v>
+        <v>52.65216285898505</v>
       </c>
       <c r="M78">
-        <v>39.68881241000188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>51.00263745379335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.0783428028225898</v>
+        <v>0.081496812403202</v>
       </c>
       <c r="C79">
-        <v>0.082182377576828</v>
+        <v>0.08212991803884501</v>
       </c>
       <c r="D79">
-        <v>0.0772334262728691</v>
+        <v>0.07998950034379949</v>
       </c>
       <c r="E79">
-        <v>0.0797662064433097</v>
+        <v>0.08124563097953789</v>
       </c>
       <c r="F79">
-        <v>227775680</v>
+        <v>29808384</v>
       </c>
       <c r="G79">
-        <v>0.08019541766632089</v>
+        <v>0.0812608654866456</v>
       </c>
       <c r="H79">
-        <v>0.0797203309834003</v>
+        <v>0.08116128146648402</v>
       </c>
       <c r="I79">
-        <v>0.0805520800252755</v>
+        <v>0.08169143026073768</v>
       </c>
       <c r="L79">
-        <v>49.23724339971399</v>
+        <v>50.27778525501065</v>
       </c>
       <c r="M79">
-        <v>46.06846082403337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>49.70228395102509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.0797596201300621</v>
+        <v>0.08125120401382439</v>
       </c>
       <c r="C80">
-        <v>0.08045729994773861</v>
+        <v>0.0815801098942756</v>
       </c>
       <c r="D80">
-        <v>0.0772639065980911</v>
+        <v>0.081019677221775</v>
       </c>
       <c r="E80">
-        <v>0.0792639851570129</v>
+        <v>0.081386499106884</v>
       </c>
       <c r="F80">
-        <v>202935040</v>
+        <v>5458624</v>
       </c>
       <c r="G80">
-        <v>0.08011074198365653</v>
+        <v>0.0812722867248491</v>
       </c>
       <c r="H80">
-        <v>0.07960453778505319</v>
+        <v>0.08122464343905444</v>
       </c>
       <c r="I80">
-        <v>0.08039007832606629</v>
+        <v>0.08156170447667434</v>
       </c>
       <c r="L80">
-        <v>46.3572810503656</v>
+        <v>51.71229703814434</v>
       </c>
       <c r="M80">
-        <v>44.26477901912417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>50.49817959924032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.07926299422979349</v>
+        <v>0.0813838317990303</v>
       </c>
       <c r="C81">
-        <v>0.0807090029120445</v>
+        <v>0.0818152502179145</v>
       </c>
       <c r="D81">
-        <v>0.07922150939702979</v>
+        <v>0.0812979564070701</v>
       </c>
       <c r="E81">
-        <v>0.07984469830989829</v>
+        <v>0.0812990069389343</v>
       </c>
       <c r="F81">
-        <v>2483456</v>
+        <v>2975936</v>
       </c>
       <c r="G81">
-        <v>0.08008655619513305</v>
+        <v>0.08127471583522047</v>
       </c>
       <c r="H81">
-        <v>0.07954901047050947</v>
+        <v>0.0812337033450603</v>
       </c>
       <c r="I81">
-        <v>0.08027992770075794</v>
+        <v>0.08145086343089733</v>
       </c>
       <c r="L81">
-        <v>50.15021628542124</v>
+        <v>50.69044337986453</v>
       </c>
       <c r="M81">
-        <v>46.85575674336511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>49.9693054998618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.0798445492982864</v>
+        <v>0.08131241053342809</v>
       </c>
       <c r="C82">
-        <v>0.0799941644072532</v>
+        <v>0.08153893798589699</v>
       </c>
       <c r="D82">
-        <v>0.07846970856189719</v>
+        <v>0.0812293142080307</v>
       </c>
       <c r="E82">
-        <v>0.07871370762586589</v>
+        <v>0.0812372416257858</v>
       </c>
       <c r="F82">
-        <v>6075840</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.07996175177974513</v>
+        <v>0.08127130908890823</v>
       </c>
       <c r="H82">
-        <v>0.07945134676992888</v>
+        <v>0.08123884387314315</v>
       </c>
       <c r="I82">
-        <v>0.08013707225521399</v>
+        <v>0.08136273796359693</v>
       </c>
       <c r="L82">
-        <v>43.4230138709548</v>
+        <v>49.90721892996089</v>
       </c>
       <c r="M82">
-        <v>42.6930730075842</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>49.57457946856472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.07871627062559119</v>
+        <v>0.08123559504747389</v>
       </c>
       <c r="C83">
-        <v>0.0796487852931022</v>
+        <v>0.0813184455037117</v>
       </c>
       <c r="D83">
-        <v>0.07824511826038361</v>
+        <v>0.0804407522082328</v>
       </c>
       <c r="E83">
-        <v>0.0792053714394569</v>
+        <v>0.0804471969604492</v>
       </c>
       <c r="F83">
-        <v>3208576</v>
+        <v>5626048</v>
       </c>
       <c r="G83">
-        <v>0.07989298993062802</v>
+        <v>0.08119638980450286</v>
       </c>
       <c r="H83">
-        <v>0.07936840131878847</v>
+        <v>0.08121478669345375</v>
       </c>
       <c r="I83">
-        <v>0.08003189514080677</v>
+        <v>0.08124392082293824</v>
       </c>
       <c r="L83">
-        <v>46.90612889364371</v>
+        <v>40.82920935972646</v>
       </c>
       <c r="M83">
-        <v>44.98137881796212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>44.70956051882065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.0792068541049957</v>
+        <v>0.08044525235891339</v>
       </c>
       <c r="C84">
-        <v>0.07923801243305199</v>
+        <v>0.08103162795305251</v>
       </c>
       <c r="D84">
-        <v>0.07668263465166091</v>
+        <v>0.08030737191438669</v>
       </c>
       <c r="E84">
-        <v>0.0782109722495079</v>
+        <v>0.0805887877941131</v>
       </c>
       <c r="F84">
-        <v>14060160</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.07974007923234436</v>
+        <v>0.08114115325810378</v>
       </c>
       <c r="H84">
-        <v>0.07923805527389045</v>
+        <v>0.08120846897363658</v>
       </c>
       <c r="I84">
-        <v>0.07990936314066245</v>
+        <v>0.08110836992661154</v>
       </c>
       <c r="L84">
-        <v>41.14287581050771</v>
+        <v>42.92249392859692</v>
       </c>
       <c r="M84">
-        <v>41.38224350711389</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>45.7373279482789</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.078218288719654</v>
+        <v>0.0805863440036773</v>
       </c>
       <c r="C85">
-        <v>0.0792582035064697</v>
+        <v>0.08078593015670769</v>
       </c>
       <c r="D85">
-        <v>0.0778059214353561</v>
+        <v>0.08010122179985039</v>
       </c>
       <c r="E85">
-        <v>0.0791838839650154</v>
+        <v>0.0801078230142593</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>7816096</v>
       </c>
       <c r="G85">
-        <v>0.07968951602622354</v>
+        <v>0.08104721414502701</v>
       </c>
       <c r="H85">
-        <v>0.0791896484792232</v>
+        <v>0.08108340725302692</v>
       </c>
       <c r="I85">
-        <v>0.07982262447476382</v>
+        <v>0.08102768808603282</v>
       </c>
       <c r="L85">
-        <v>48.1544392581382</v>
+        <v>37.81077322211114</v>
       </c>
       <c r="M85">
-        <v>45.93988083992364</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>42.8252215002742</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.0791882053017616</v>
+        <v>0.0801160857081413</v>
       </c>
       <c r="C86">
-        <v>0.0844504758715629</v>
+        <v>0.08047809451818461</v>
       </c>
       <c r="D86">
-        <v>0.0779794007539749</v>
+        <v>0.0795560479164123</v>
       </c>
       <c r="E86">
-        <v>0.08297242969274519</v>
+        <v>0.0804560333490371</v>
       </c>
       <c r="F86">
-        <v>87315392</v>
+        <v>5280752</v>
       </c>
       <c r="G86">
-        <v>0.07998796272318005</v>
+        <v>0.08099347043630065</v>
       </c>
       <c r="H86">
-        <v>0.07935052104294296</v>
+        <v>0.08095364347100255</v>
       </c>
       <c r="I86">
-        <v>0.07982927064100896</v>
+        <v>0.08099389970302577</v>
       </c>
       <c r="L86">
-        <v>65.9331275982656</v>
+        <v>43.3096294968124</v>
       </c>
       <c r="M86">
-        <v>59.23245090531503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>45.52925956611062</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.08296945691108699</v>
+        <v>0.0804525390267372</v>
       </c>
       <c r="C87">
-        <v>0.0845655277371406</v>
+        <v>0.08055203408002851</v>
       </c>
       <c r="D87">
-        <v>0.0825520977377891</v>
+        <v>0.07987213879823681</v>
       </c>
       <c r="E87">
-        <v>0.0839201509952545</v>
+        <v>0.0804945528507232</v>
       </c>
       <c r="F87">
-        <v>68030464</v>
+        <v>267680</v>
       </c>
       <c r="G87">
-        <v>0.08034543438427774</v>
+        <v>0.08094811429215723</v>
       </c>
       <c r="H87">
-        <v>0.07953994087874885</v>
+        <v>0.0808739926666021</v>
       </c>
       <c r="I87">
-        <v>0.07988438929120695</v>
+        <v>0.08100886469086006</v>
       </c>
       <c r="L87">
-        <v>68.93139602618521</v>
+        <v>43.92665793251784</v>
       </c>
       <c r="M87">
-        <v>61.76515299503789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>45.83443898573647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.08393336087465279</v>
+        <v>0.0805093422532081</v>
       </c>
       <c r="C88">
-        <v>0.08437382429838181</v>
+        <v>0.08069348335266111</v>
       </c>
       <c r="D88">
-        <v>0.0823825299739837</v>
+        <v>0.0800689160823822</v>
       </c>
       <c r="E88">
-        <v>0.0838391855359077</v>
+        <v>0.0801485702395439</v>
       </c>
       <c r="F88">
-        <v>38871424</v>
+        <v>4076736</v>
       </c>
       <c r="G88">
-        <v>0.08066304812533501</v>
+        <v>0.08087542846919238</v>
       </c>
       <c r="H88">
-        <v>0.07982074283063408</v>
+        <v>0.08083802051842209</v>
       </c>
       <c r="I88">
-        <v>0.08000880032777782</v>
+        <v>0.08100879291693365</v>
       </c>
       <c r="L88">
-        <v>68.35320836943406</v>
+        <v>39.57420379303957</v>
       </c>
       <c r="M88">
-        <v>61.41412512394616</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>43.47818724813191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.08383007347583769</v>
+        <v>0.0801485702395439</v>
       </c>
       <c r="C89">
-        <v>0.0860409289598465</v>
+        <v>0.08067392557859419</v>
       </c>
       <c r="D89">
-        <v>0.0837204903364181</v>
+        <v>0.0801485702395439</v>
       </c>
       <c r="E89">
-        <v>0.08599205315113061</v>
+        <v>0.0806124657392501</v>
       </c>
       <c r="F89">
-        <v>52357120</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.08114750312768006</v>
+        <v>0.08085152276647034</v>
       </c>
       <c r="H89">
-        <v>0.08031810335814948</v>
+        <v>0.08087142892181869</v>
       </c>
       <c r="I89">
-        <v>0.0801851019263267</v>
+        <v>0.08100012689828869</v>
       </c>
       <c r="L89">
-        <v>74.70102918582162</v>
+        <v>47.43113659350379</v>
       </c>
       <c r="M89">
-        <v>66.81476480160487</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>47.38388905982286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.0859922468662262</v>
+        <v>0.08061351627111429</v>
       </c>
       <c r="C90">
-        <v>0.0876354426145553</v>
+        <v>0.08063825219869609</v>
       </c>
       <c r="D90">
-        <v>0.08446457982063291</v>
+        <v>0.07983293384313581</v>
       </c>
       <c r="E90">
-        <v>0.0847736224532127</v>
+        <v>0.0799619406461715</v>
       </c>
       <c r="F90">
-        <v>122979264</v>
+        <v>268160</v>
       </c>
       <c r="G90">
-        <v>0.08147715033909211</v>
+        <v>0.08077065166462499</v>
       </c>
       <c r="H90">
-        <v>0.08067089468240733</v>
+        <v>0.08081413023173804</v>
       </c>
       <c r="I90">
-        <v>0.08029156103730198</v>
+        <v>0.08099488293131187</v>
       </c>
       <c r="L90">
-        <v>66.24124147872206</v>
+        <v>39.35772551643053</v>
       </c>
       <c r="M90">
-        <v>61.56300502580518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>42.90640819196362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.0848176851868629</v>
+        <v>0.07997361570596689</v>
       </c>
       <c r="C91">
-        <v>0.0853448063135147</v>
+        <v>0.080133318901062</v>
       </c>
       <c r="D91">
-        <v>0.08338735997676849</v>
+        <v>0.0793347060680389</v>
       </c>
       <c r="E91">
-        <v>0.0852782726287841</v>
+        <v>0.0800322070717811</v>
       </c>
       <c r="F91">
-        <v>36641792</v>
+        <v>8292736</v>
       </c>
       <c r="G91">
-        <v>0.0818227069108823</v>
+        <v>0.08070352033800282</v>
       </c>
       <c r="H91">
-        <v>0.08102365694940085</v>
+        <v>0.08076891116797921</v>
       </c>
       <c r="I91">
-        <v>0.08043566197156901</v>
+        <v>0.08095869620641068</v>
       </c>
       <c r="L91">
-        <v>67.93335139660503</v>
+        <v>40.58661869827665</v>
       </c>
       <c r="M91">
-        <v>62.86494441536188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>43.52715033452842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.0852762833237648</v>
+        <v>0.0800347477197647</v>
       </c>
       <c r="C92">
-        <v>0.08560324460268021</v>
+        <v>0.0800439715385437</v>
       </c>
       <c r="D92">
-        <v>0.08400245755910871</v>
+        <v>0.0774320662021637</v>
       </c>
       <c r="E92">
-        <v>0.0846242383122444</v>
+        <v>0.0774320662021637</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>44902096</v>
       </c>
       <c r="G92">
-        <v>0.08207739158373339</v>
+        <v>0.0804061154165629</v>
       </c>
       <c r="H92">
-        <v>0.08129643797874445</v>
+        <v>0.08056427612900731</v>
       </c>
       <c r="I92">
-        <v>0.08056757052739456</v>
+        <v>0.08083528404434517</v>
       </c>
       <c r="L92">
-        <v>63.30682279290296</v>
+        <v>22.01478840137846</v>
       </c>
       <c r="M92">
-        <v>60.02713175164306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>30.36914349217414</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.0846152156591415</v>
+        <v>0.07744740694761269</v>
       </c>
       <c r="C93">
-        <v>0.0848474949598312</v>
+        <v>0.07826487720012661</v>
       </c>
       <c r="D93">
-        <v>0.08333861082792279</v>
+        <v>0.07739941775798791</v>
       </c>
       <c r="E93">
-        <v>0.0838810056447982</v>
+        <v>0.07798821479082101</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>30071840</v>
       </c>
       <c r="G93">
-        <v>0.08224135649837565</v>
+        <v>0.08018630626876817</v>
       </c>
       <c r="H93">
-        <v>0.0814304947853088</v>
+        <v>0.08045185133814807</v>
       </c>
       <c r="I93">
-        <v>0.08066812803347899</v>
+        <v>0.08073727985223129</v>
       </c>
       <c r="L93">
-        <v>58.23640715381571</v>
+        <v>29.7498788582436</v>
       </c>
       <c r="M93">
-        <v>56.88460577270926</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>34.90204090874809</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.0838716402649879</v>
+        <v>0.0779874995350837</v>
       </c>
       <c r="C94">
-        <v>0.0848942995071411</v>
+        <v>0.0781219154596328</v>
       </c>
       <c r="D94">
-        <v>0.0836040377616882</v>
+        <v>0.07660930603742599</v>
       </c>
       <c r="E94">
-        <v>0.0840117111802101</v>
+        <v>0.0773116573691368</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>31169280</v>
       </c>
       <c r="G94">
-        <v>0.08240229783308788</v>
+        <v>0.07992497455061986</v>
       </c>
       <c r="H94">
-        <v>0.08156257718801493</v>
+        <v>0.08026083484292026</v>
       </c>
       <c r="I94">
-        <v>0.08077458863457038</v>
+        <v>0.08062383035818731</v>
       </c>
       <c r="L94">
-        <v>58.88786273773893</v>
+        <v>26.19418488190786</v>
       </c>
       <c r="M94">
-        <v>57.30789066805316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>32.15933222212912</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.0840196460485458</v>
+        <v>0.077324166893959</v>
       </c>
       <c r="C95">
-        <v>0.0848612338304519</v>
+        <v>0.0782182142138481</v>
       </c>
       <c r="D95">
-        <v>0.08346123993396749</v>
+        <v>0.077324166893959</v>
       </c>
       <c r="E95">
-        <v>0.0846553146839141</v>
+        <v>0.07806342840194699</v>
       </c>
       <c r="F95">
-        <v>1931136</v>
+        <v>4722176</v>
       </c>
       <c r="G95">
-        <v>0.08260711754679935</v>
+        <v>0.0797557430825587</v>
       </c>
       <c r="H95">
-        <v>0.08179647661745544</v>
+        <v>0.08010733723640437</v>
       </c>
       <c r="I95">
-        <v>0.08092469846208886</v>
+        <v>0.08047230939070379</v>
       </c>
       <c r="L95">
-        <v>62.15780593169082</v>
+        <v>35.78795145051644</v>
       </c>
       <c r="M95">
-        <v>59.42048617555128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>37.99046513679374</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.08464308083057399</v>
+        <v>0.0780616775155067</v>
       </c>
       <c r="C96">
-        <v>0.0853783935308456</v>
+        <v>0.0783775076270103</v>
       </c>
       <c r="D96">
-        <v>0.08252827823162071</v>
+        <v>0.0778676122426986</v>
       </c>
       <c r="E96">
-        <v>0.08252827823162071</v>
+        <v>0.07815830409526819</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>241408</v>
       </c>
       <c r="G96">
-        <v>0.08259995033632855</v>
+        <v>0.07961052135644138</v>
       </c>
       <c r="H96">
-        <v>0.08189800530672067</v>
+        <v>0.07996346578001971</v>
       </c>
       <c r="I96">
-        <v>0.08101714178919787</v>
+        <v>0.08030920922756191</v>
       </c>
       <c r="L96">
-        <v>47.97167177876049</v>
+        <v>36.95152818299166</v>
       </c>
       <c r="M96">
-        <v>50.5224466714873</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>38.7064953360124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.0825455784797668</v>
+        <v>0.0781581178307533</v>
       </c>
       <c r="C97">
-        <v>0.0828834325075149</v>
+        <v>0.0785020664334297</v>
       </c>
       <c r="D97">
-        <v>0.0800239890813827</v>
+        <v>0.0772093087434768</v>
       </c>
       <c r="E97">
-        <v>0.0814696848392486</v>
+        <v>0.07740522921085349</v>
       </c>
       <c r="F97">
-        <v>48524224</v>
+        <v>15161568</v>
       </c>
       <c r="G97">
-        <v>0.0824971989275031</v>
+        <v>0.07941004025229703</v>
       </c>
       <c r="H97">
-        <v>0.08202484734356399</v>
+        <v>0.07979315258562561</v>
       </c>
       <c r="I97">
-        <v>0.08106173947453495</v>
+        <v>0.08015313123663262</v>
       </c>
       <c r="L97">
-        <v>42.53623774291636</v>
+        <v>31.80504823389251</v>
       </c>
       <c r="M97">
-        <v>46.7688008425868</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>35.22918576431521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.0814837142825126</v>
+        <v>0.0774152725934982</v>
       </c>
       <c r="C98">
-        <v>0.08187089115381239</v>
+        <v>0.0783445537090301</v>
       </c>
       <c r="D98">
-        <v>0.07824740558862681</v>
+        <v>0.07515250146389001</v>
       </c>
       <c r="E98">
-        <v>0.0800456032156944</v>
+        <v>0.07833389937877649</v>
       </c>
       <c r="F98">
-        <v>64159232</v>
+        <v>37055392</v>
       </c>
       <c r="G98">
-        <v>0.08227432659006594</v>
+        <v>0.07931220926379517</v>
       </c>
       <c r="H98">
-        <v>0.08210901878774161</v>
+        <v>0.07963553778827186</v>
       </c>
       <c r="I98">
-        <v>0.08112248803178465</v>
+        <v>0.08006866077582038</v>
       </c>
       <c r="L98">
-        <v>36.3099002479026</v>
+        <v>42.84799983222465</v>
       </c>
       <c r="M98">
-        <v>42.22396389373677</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>42.13313337333727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.0800362899899482</v>
+        <v>0.07833383232355109</v>
       </c>
       <c r="C99">
-        <v>0.080385647714138</v>
+        <v>0.0787051767110824</v>
       </c>
       <c r="D99">
-        <v>0.0789064094424247</v>
+        <v>0.07793413102626801</v>
       </c>
       <c r="E99">
-        <v>0.0801507234573364</v>
+        <v>0.07853554934263229</v>
       </c>
       <c r="F99">
-        <v>6071808</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.08208127175981779</v>
+        <v>0.07924160381641673</v>
       </c>
       <c r="H99">
-        <v>0.08212824463844295</v>
+        <v>0.07950003370642658</v>
       </c>
       <c r="I99">
-        <v>0.08125935072700179</v>
+        <v>0.08002170249819753</v>
       </c>
       <c r="L99">
-        <v>37.07479592485264</v>
+        <v>45.02272956457016</v>
       </c>
       <c r="M99">
-        <v>42.66686211451527</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>43.54040276966094</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.0801544860005378</v>
+        <v>0.07853430509567259</v>
       </c>
       <c r="C100">
-        <v>0.08101137727499</v>
+        <v>0.07885861396789549</v>
       </c>
       <c r="D100">
-        <v>0.08014672994613641</v>
+        <v>0.07829777896404259</v>
       </c>
       <c r="E100">
-        <v>0.0808724462985992</v>
+        <v>0.0784196034073829</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>783872</v>
       </c>
       <c r="G100">
-        <v>0.08197137853607064</v>
+        <v>0.07916687650650457</v>
       </c>
       <c r="H100">
-        <v>0.08220866769552226</v>
+        <v>0.07935168892145153</v>
       </c>
       <c r="I100">
-        <v>0.0813645057380199</v>
+        <v>0.07993209213018412</v>
       </c>
       <c r="L100">
-        <v>42.41633266318973</v>
+        <v>43.94115800721735</v>
       </c>
       <c r="M100">
-        <v>45.74216192372093</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>42.89446512428667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.0808717980980873</v>
+        <v>0.0784261599183082</v>
       </c>
       <c r="C101">
-        <v>0.0809475108981132</v>
+        <v>0.0794150531291961</v>
       </c>
       <c r="D101">
-        <v>0.07981604337692259</v>
+        <v>0.0782362818717956</v>
       </c>
       <c r="E101">
-        <v>0.0801192596554756</v>
+        <v>0.0791588872671127</v>
       </c>
       <c r="F101">
-        <v>1439872</v>
+        <v>16079776</v>
       </c>
       <c r="G101">
-        <v>0.08180300409238017</v>
+        <v>0.0791661502120144</v>
       </c>
       <c r="H101">
-        <v>0.08222239576280113</v>
+        <v>0.07924468293786044</v>
       </c>
       <c r="I101">
-        <v>0.08142771348357196</v>
+        <v>0.07987283542752262</v>
       </c>
       <c r="L101">
-        <v>38.57218139020181</v>
+        <v>52.18121463457928</v>
       </c>
       <c r="M101">
-        <v>43.14144389179767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>48.17389586866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.0801291018724441</v>
+        <v>0.0791612640023231</v>
       </c>
       <c r="C102">
-        <v>0.08124721795320509</v>
+        <v>0.0793506801128387</v>
       </c>
       <c r="D102">
-        <v>0.0800753533840179</v>
+        <v>0.0784638822078704</v>
       </c>
       <c r="E102">
-        <v>0.0811178088188171</v>
+        <v>0.0791897997260093</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>9959392</v>
       </c>
       <c r="G102">
-        <v>0.08174071361296535</v>
+        <v>0.07916830016783212</v>
       </c>
       <c r="H102">
-        <v>0.08234260082244868</v>
+        <v>0.07914231084287163</v>
       </c>
       <c r="I102">
-        <v>0.08149268652002012</v>
+        <v>0.07979500318566954</v>
       </c>
       <c r="L102">
-        <v>45.88677400663691</v>
+        <v>52.50958720177307</v>
       </c>
       <c r="M102">
-        <v>47.41045714727465</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>48.38875816503279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.0811512544751167</v>
+        <v>0.07919874042272559</v>
       </c>
       <c r="C103">
-        <v>0.08125981688499451</v>
+        <v>0.0794610902667045</v>
       </c>
       <c r="D103">
-        <v>0.0806978568434715</v>
+        <v>0.0789911821484565</v>
       </c>
       <c r="E103">
-        <v>0.08113443106412881</v>
+        <v>0.0792166441679</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.08168559701761657</v>
+        <v>0.0791726950769292</v>
       </c>
       <c r="H103">
-        <v>0.08243905380368229</v>
+        <v>0.07908078320324416</v>
       </c>
       <c r="I103">
-        <v>0.08149050523837402</v>
+        <v>0.07976100097099935</v>
       </c>
       <c r="L103">
-        <v>46.00717604805721</v>
+        <v>52.82606538604518</v>
       </c>
       <c r="M103">
-        <v>47.48114614675404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>48.58809193593698</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.0810984820127487</v>
+        <v>0.07921496778726569</v>
       </c>
       <c r="C104">
-        <v>0.0811326652765274</v>
+        <v>0.0821516960859298</v>
       </c>
       <c r="D104">
-        <v>0.0806954056024551</v>
+        <v>0.0791978612542152</v>
       </c>
       <c r="E104">
-        <v>0.0809283405542373</v>
+        <v>0.0821516960859298</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>28663968</v>
       </c>
       <c r="G104">
-        <v>0.08161675552094573</v>
+        <v>0.07944351335047471</v>
       </c>
       <c r="H104">
-        <v>0.08257492221891875</v>
+        <v>0.07915892861783499</v>
       </c>
       <c r="I104">
-        <v>0.0814757811526457</v>
+        <v>0.07979499126474059</v>
       </c>
       <c r="L104">
-        <v>44.62232380982325</v>
+        <v>74.07589727092846</v>
       </c>
       <c r="M104">
-        <v>46.64400012688944</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>64.65953630341725</v>
+      </c>
+      <c r="O104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.0809211581945419</v>
+        <v>0.082149937748909</v>
       </c>
       <c r="C105">
-        <v>0.0810286030173301</v>
+        <v>0.0899984762072563</v>
       </c>
       <c r="D105">
-        <v>0.08044186234474179</v>
+        <v>0.082149937748909</v>
       </c>
       <c r="E105">
-        <v>0.08071514219045629</v>
+        <v>0.0878245532512664</v>
       </c>
       <c r="F105">
-        <v>351424</v>
+        <v>391162432</v>
       </c>
       <c r="G105">
-        <v>0.08153479067271942</v>
+        <v>0.08020542606872851</v>
       </c>
       <c r="H105">
-        <v>0.0826514851301908</v>
+        <v>0.07954476512968535</v>
       </c>
       <c r="I105">
-        <v>0.08150037502249077</v>
+        <v>0.08001803035537397</v>
       </c>
       <c r="L105">
-        <v>43.11205255493456</v>
+        <v>86.90352577017661</v>
       </c>
       <c r="M105">
-        <v>45.74545776311722</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>78.59025312256942</v>
+      </c>
+      <c r="O105" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.0807188674807548</v>
+        <v>0.08786804974079131</v>
       </c>
       <c r="C106">
-        <v>0.0826090574264526</v>
+        <v>0.0899916365742683</v>
       </c>
       <c r="D106">
-        <v>0.0803705677390098</v>
+        <v>0.08658760040998451</v>
       </c>
       <c r="E106">
-        <v>0.0826090574264526</v>
+        <v>0.0868776366114616</v>
       </c>
       <c r="F106">
-        <v>36780352</v>
+        <v>355990848</v>
       </c>
       <c r="G106">
-        <v>0.08163245128669516</v>
+        <v>0.08081199066352242</v>
       </c>
       <c r="H106">
-        <v>0.08263331651687617</v>
+        <v>0.07986584529280658</v>
       </c>
       <c r="I106">
-        <v>0.081570753455162</v>
+        <v>0.08021276046832398</v>
       </c>
       <c r="L106">
-        <v>57.49064765881489</v>
+        <v>79.51505708241734</v>
       </c>
       <c r="M106">
-        <v>54.18816634346854</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>73.38990822307619</v>
+      </c>
+      <c r="O106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.0826045796275138</v>
+        <v>0.0868058651685714</v>
       </c>
       <c r="C107">
-        <v>0.0838242694735527</v>
+        <v>0.08699841052293771</v>
       </c>
       <c r="D107">
-        <v>0.08189919590950009</v>
+        <v>0.08488359302282331</v>
       </c>
       <c r="E107">
-        <v>0.0830513089895248</v>
+        <v>0.0858211144804954</v>
       </c>
       <c r="F107">
-        <v>80030656</v>
+        <v>108371584</v>
       </c>
       <c r="G107">
-        <v>0.08176143835058877</v>
+        <v>0.0812673655559745</v>
       </c>
       <c r="H107">
-        <v>0.08258987441658969</v>
+        <v>0.08013217337429518</v>
       </c>
       <c r="I107">
-        <v>0.08170803561806675</v>
+        <v>0.08037974784771595</v>
       </c>
       <c r="L107">
-        <v>60.13745638887135</v>
+        <v>71.84764267171417</v>
       </c>
       <c r="M107">
-        <v>55.91339198091816</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>67.98454145989706</v>
+      </c>
+      <c r="O107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.0830380246043205</v>
+        <v>0.0858276858925819</v>
       </c>
       <c r="C108">
-        <v>0.0830434262752533</v>
+        <v>0.0870114341378212</v>
       </c>
       <c r="D108">
-        <v>0.08203486353158949</v>
+        <v>0.08511243760585779</v>
       </c>
       <c r="E108">
-        <v>0.08208756893873211</v>
+        <v>0.08647566288709641</v>
       </c>
       <c r="F108">
-        <v>17100928</v>
+        <v>69313152</v>
       </c>
       <c r="G108">
-        <v>0.08179108658587453</v>
+        <v>0.08174084713153104</v>
       </c>
       <c r="H108">
-        <v>0.08250229358673092</v>
+        <v>0.08044852800667281</v>
       </c>
       <c r="I108">
-        <v>0.08183221543828642</v>
+        <v>0.08054606343309079</v>
       </c>
       <c r="L108">
-        <v>52.17346464276737</v>
+        <v>73.62053070880609</v>
       </c>
       <c r="M108">
-        <v>51.37314386816062</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>69.48409814226716</v>
+      </c>
+      <c r="O108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.08209054172039031</v>
+        <v>0.08647739142179479</v>
       </c>
       <c r="C109">
-        <v>0.08236568421125411</v>
+        <v>0.0886161923408508</v>
       </c>
       <c r="D109">
-        <v>0.080868013203144</v>
+        <v>0.0863040536642074</v>
       </c>
       <c r="E109">
-        <v>0.080868013203144</v>
+        <v>0.0871799662709236</v>
       </c>
       <c r="F109">
-        <v>23506688</v>
+        <v>108106624</v>
       </c>
       <c r="G109">
-        <v>0.08170717082380811</v>
+        <v>0.08223531250783944</v>
       </c>
       <c r="H109">
-        <v>0.08224609158933158</v>
+        <v>0.08077690303325649</v>
       </c>
       <c r="I109">
-        <v>0.0818689423302809</v>
+        <v>0.08074387460947031</v>
       </c>
       <c r="L109">
-        <v>43.89748115952923</v>
+        <v>75.48904851608425</v>
       </c>
       <c r="M109">
-        <v>46.25461405244864</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>71.05510412892126</v>
+      </c>
+      <c r="O109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.08088080585002889</v>
+        <v>0.0871743634343147</v>
       </c>
       <c r="C110">
-        <v>0.08124667406082151</v>
+        <v>0.087181843817234</v>
       </c>
       <c r="D110">
-        <v>0.0798513144254684</v>
+        <v>0.0859305262565612</v>
       </c>
       <c r="E110">
-        <v>0.079944297671318</v>
+        <v>0.08628439158201209</v>
       </c>
       <c r="F110">
-        <v>36422272</v>
+        <v>23348352</v>
       </c>
       <c r="G110">
-        <v>0.08154690962812719</v>
+        <v>0.08260341060549149</v>
       </c>
       <c r="H110">
-        <v>0.08200462535023684</v>
+        <v>0.08109302558004852</v>
       </c>
       <c r="I110">
-        <v>0.08189161941409107</v>
+        <v>0.08090713769197458</v>
       </c>
       <c r="L110">
-        <v>38.67062822492789</v>
+        <v>68.5437109487841</v>
       </c>
       <c r="M110">
-        <v>42.77804171972834</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>66.37573110046765</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.079968549311161</v>
+        <v>0.0862987339496612</v>
       </c>
       <c r="C111">
-        <v>0.08138095587491979</v>
+        <v>0.0863640382885932</v>
       </c>
       <c r="D111">
-        <v>0.079968549311161</v>
+        <v>0.0848425775766372</v>
       </c>
       <c r="E111">
-        <v>0.0811079144477844</v>
+        <v>0.0852870494127273</v>
       </c>
       <c r="F111">
-        <v>2709536</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.08150700097536875</v>
+        <v>0.08284737776978565</v>
       </c>
       <c r="H111">
-        <v>0.08179610744118686</v>
+        <v>0.08135576769709582</v>
       </c>
       <c r="I111">
-        <v>0.08193372661868725</v>
+        <v>0.08104007244110104</v>
       </c>
       <c r="L111">
-        <v>47.52534233886742</v>
+        <v>61.45947310306842</v>
       </c>
       <c r="M111">
-        <v>48.07281533999902</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>61.51708579381256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.0811107382178306</v>
+        <v>0.0852922424674034</v>
       </c>
       <c r="C112">
-        <v>0.0815535187721252</v>
+        <v>0.08541633188724509</v>
       </c>
       <c r="D112">
-        <v>0.0806138217449188</v>
+        <v>0.0826805010437965</v>
       </c>
       <c r="E112">
-        <v>0.0809365883469581</v>
+        <v>0.0832203775644302</v>
       </c>
       <c r="F112">
-        <v>604320</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>0.08145514528187688</v>
+        <v>0.08288128684202606</v>
       </c>
       <c r="H112">
-        <v>0.08161172494292254</v>
+        <v>0.08164518326520914</v>
       </c>
       <c r="I112">
-        <v>0.08200782264272367</v>
+        <v>0.08110617697238917</v>
       </c>
       <c r="L112">
-        <v>46.41531566320627</v>
+        <v>49.5266248700792</v>
       </c>
       <c r="M112">
-        <v>47.37769996652974</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>52.87927998984564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.0809380188584327</v>
+        <v>0.0832208767533302</v>
       </c>
       <c r="C113">
-        <v>0.0816198214888572</v>
+        <v>0.08394484221935269</v>
       </c>
       <c r="D113">
-        <v>0.0807506442070007</v>
+        <v>0.0824894309043884</v>
       </c>
       <c r="E113">
-        <v>0.0815247669816017</v>
+        <v>0.0831940621137619</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.0814614745273064</v>
+        <v>0.08290972095763841</v>
       </c>
       <c r="H113">
-        <v>0.08149391300976272</v>
+        <v>0.08190547563135619</v>
       </c>
       <c r="I113">
-        <v>0.08208513582746184</v>
+        <v>0.08119773914416627</v>
       </c>
       <c r="L113">
-        <v>50.84913097663295</v>
+        <v>49.38925875894486</v>
       </c>
       <c r="M113">
-        <v>50.04811996878873</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>52.7776593839797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.08152192085981361</v>
+        <v>0.08319972455501549</v>
       </c>
       <c r="C114">
-        <v>0.0815852433443069</v>
+        <v>0.0833929777145385</v>
       </c>
       <c r="D114">
-        <v>0.0799895450472831</v>
+        <v>0.0817961171269416</v>
       </c>
       <c r="E114">
-        <v>0.0802367106080055</v>
+        <v>0.0833228603005409</v>
       </c>
       <c r="F114">
-        <v>10861664</v>
+        <v>9733184</v>
       </c>
       <c r="G114">
-        <v>0.0813501323528245</v>
+        <v>0.08294727907972045</v>
       </c>
       <c r="H114">
-        <v>0.08130516298115249</v>
+        <v>0.0822060357779264</v>
       </c>
       <c r="I114">
-        <v>0.08215266043941176</v>
+        <v>0.08128887489438053</v>
       </c>
       <c r="L114">
-        <v>42.23868806923844</v>
+        <v>50.15055322543027</v>
       </c>
       <c r="M114">
-        <v>44.69860920594614</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>53.25119255178254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.0802552253007888</v>
+        <v>0.08332113921642301</v>
       </c>
       <c r="C115">
-        <v>0.08163686096668241</v>
+        <v>0.0844493433833122</v>
       </c>
       <c r="D115">
-        <v>0.08025103807449339</v>
+        <v>0.0831027254462242</v>
       </c>
       <c r="E115">
-        <v>0.081131987273693</v>
+        <v>0.0840040892362594</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>11963456</v>
       </c>
       <c r="G115">
-        <v>0.08133030098199437</v>
+        <v>0.08304335273031489</v>
       </c>
       <c r="H115">
-        <v>0.08112899661064142</v>
+        <v>0.08250306881964202</v>
       </c>
       <c r="I115">
-        <v>0.08221759721636768</v>
+        <v>0.08141875043511386</v>
       </c>
       <c r="L115">
-        <v>48.99252675702168</v>
+        <v>54.24577165024979</v>
       </c>
       <c r="M115">
-        <v>48.79538747661555</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>55.77710385488513</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.0811316817998886</v>
+        <v>0.08401688933372491</v>
       </c>
       <c r="C116">
-        <v>0.0812896341085434</v>
+        <v>0.0845666974782943</v>
       </c>
       <c r="D116">
-        <v>0.08016959577798841</v>
+        <v>0.08071098476648331</v>
       </c>
       <c r="E116">
-        <v>0.0811333805322647</v>
+        <v>0.0816766992211341</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>67097216</v>
       </c>
       <c r="G116">
-        <v>0.08131239912292804</v>
+        <v>0.08291911150220756</v>
       </c>
       <c r="H116">
-        <v>0.08105925172567363</v>
+        <v>0.08267898857593531</v>
       </c>
       <c r="I116">
-        <v>0.08215629557768499</v>
+        <v>0.0814594392975171</v>
       </c>
       <c r="L116">
-        <v>49.00296639720339</v>
+        <v>41.22797839475101</v>
       </c>
       <c r="M116">
-        <v>48.80174401559969</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>46.52759046496718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.0811063945293426</v>
+        <v>0.081730268895626</v>
       </c>
       <c r="C117">
-        <v>0.0815609097480773</v>
+        <v>0.08245993405580521</v>
       </c>
       <c r="D117">
-        <v>0.0808583348989486</v>
+        <v>0.0801950693130493</v>
       </c>
       <c r="E117">
-        <v>0.0810357332229614</v>
+        <v>0.0803287699818611</v>
       </c>
       <c r="F117">
-        <v>1000064</v>
+        <v>12837440</v>
       </c>
       <c r="G117">
-        <v>0.08128724767747653</v>
+        <v>0.08268362590944879</v>
       </c>
       <c r="H117">
-        <v>0.08103755414485928</v>
+        <v>0.08282516561448569</v>
       </c>
       <c r="I117">
-        <v>0.08206014831860856</v>
+        <v>0.08145391320188836</v>
       </c>
       <c r="L117">
-        <v>48.22474575527686</v>
+        <v>35.6532795314245</v>
       </c>
       <c r="M117">
-        <v>48.34873175345056</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>42.16633623904056</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.08104260265827171</v>
+        <v>0.0803463086485862</v>
       </c>
       <c r="C118">
-        <v>0.0811809450387954</v>
+        <v>0.0816773697733879</v>
       </c>
       <c r="D118">
-        <v>0.0802495032548904</v>
+        <v>0.0803463086485862</v>
       </c>
       <c r="E118">
-        <v>0.0808114930987358</v>
+        <v>0.08092641085386269</v>
       </c>
       <c r="F118">
-        <v>3190896</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.08124399726122737</v>
+        <v>0.08252387908621368</v>
       </c>
       <c r="H118">
-        <v>0.08107584863901134</v>
+        <v>0.08295479118824001</v>
       </c>
       <c r="I118">
-        <v>0.0819592252373695</v>
+        <v>0.08147984122236564</v>
       </c>
       <c r="L118">
-        <v>46.32413467063799</v>
+        <v>39.71898266788908</v>
       </c>
       <c r="M118">
-        <v>47.26370583183856</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>44.64389653940782</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.0808247476816177</v>
+        <v>0.0809028372168541</v>
       </c>
       <c r="C119">
-        <v>0.0822670608758926</v>
+        <v>0.08123981952667229</v>
       </c>
       <c r="D119">
-        <v>0.0808247476816177</v>
+        <v>0.0795578807592392</v>
       </c>
       <c r="E119">
-        <v>0.0814861953258514</v>
+        <v>0.0796454921364784</v>
       </c>
       <c r="F119">
-        <v>28818464</v>
+        <v>16620608</v>
       </c>
       <c r="G119">
-        <v>0.08126601526710228</v>
+        <v>0.08226220754532866</v>
       </c>
       <c r="H119">
-        <v>0.08114262223243709</v>
+        <v>0.08301028832793231</v>
       </c>
       <c r="I119">
-        <v>0.08180902997652685</v>
+        <v>0.08144760876893992</v>
       </c>
       <c r="L119">
-        <v>52.64196971954512</v>
+        <v>34.46780535827379</v>
       </c>
       <c r="M119">
-        <v>50.83859678991001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>40.62671717700413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.081496812403202</v>
+        <v>0.0796732604503631</v>
       </c>
       <c r="C120">
-        <v>0.08212991803884501</v>
+        <v>0.0798656120896339</v>
       </c>
       <c r="D120">
-        <v>0.07998950034379949</v>
+        <v>0.07630292326211929</v>
       </c>
       <c r="E120">
-        <v>0.08124563097953789</v>
+        <v>0.0771098658442497</v>
       </c>
       <c r="F120">
-        <v>29808384</v>
+        <v>79102336</v>
       </c>
       <c r="G120">
-        <v>0.08126416215005097</v>
+        <v>0.08179381284523057</v>
       </c>
       <c r="H120">
-        <v>0.08116128146648402</v>
+        <v>0.08294480144977565</v>
       </c>
       <c r="I120">
-        <v>0.08169143026073769</v>
+        <v>0.08135253960887587</v>
       </c>
       <c r="L120">
-        <v>50.26864038276478</v>
+        <v>26.62788799484979</v>
       </c>
       <c r="M120">
-        <v>49.54889018517245</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>34.08779211192611</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.08125120401382439</v>
+        <v>0.07711575925350179</v>
       </c>
       <c r="C121">
-        <v>0.0815801098942756</v>
+        <v>0.0776456147432327</v>
       </c>
       <c r="D121">
-        <v>0.081019677221775</v>
+        <v>0.0760907679796218</v>
       </c>
       <c r="E121">
-        <v>0.081386499106884</v>
+        <v>0.0773675888776779</v>
       </c>
       <c r="F121">
-        <v>5458624</v>
+        <v>3901952</v>
       </c>
       <c r="G121">
-        <v>0.08127528369158125</v>
+        <v>0.08139142884818033</v>
       </c>
       <c r="H121">
-        <v>0.08122464343905444</v>
+        <v>0.08285523653030391</v>
       </c>
       <c r="I121">
-        <v>0.08156170447667435</v>
+        <v>0.08126371900240575</v>
       </c>
       <c r="L121">
-        <v>51.70307051516337</v>
+        <v>28.48782548234584</v>
       </c>
       <c r="M121">
-        <v>50.34329421242629</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>35.22890481868559</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.0813838317990303</v>
+        <v>0.07737433165311811</v>
       </c>
       <c r="C122">
-        <v>0.0818152502179145</v>
+        <v>0.07777832448482511</v>
       </c>
       <c r="D122">
-        <v>0.0812979564070701</v>
+        <v>0.07659304887056349</v>
       </c>
       <c r="E122">
-        <v>0.0812990069389343</v>
+        <v>0.076717734336853</v>
       </c>
       <c r="F122">
-        <v>2975936</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0.08127744035043152</v>
+        <v>0.08096654752896876</v>
       </c>
       <c r="H122">
-        <v>0.0812337033450603</v>
+        <v>0.08273163326084609</v>
       </c>
       <c r="I122">
-        <v>0.08145086343089734</v>
+        <v>0.08123990794022874</v>
       </c>
       <c r="L122">
-        <v>50.68164032828297</v>
+        <v>26.57672206918079</v>
       </c>
       <c r="M122">
-        <v>49.81860349335461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>33.64708249030214</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.08131241053342809</v>
+        <v>0.0767094418406486</v>
       </c>
       <c r="C123">
-        <v>0.08153893798589699</v>
+        <v>0.0781868770718574</v>
       </c>
       <c r="D123">
-        <v>0.0812293142080307</v>
+        <v>0.07645641267299649</v>
       </c>
       <c r="E123">
-        <v>0.0812372416257858</v>
+        <v>0.0781681016087532</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>867200</v>
       </c>
       <c r="G123">
-        <v>0.08127378592091827</v>
+        <v>0.0807121433544037</v>
       </c>
       <c r="H123">
-        <v>0.08123884387314315</v>
+        <v>0.08267920613288876</v>
       </c>
       <c r="I123">
-        <v>0.08136273796359696</v>
+        <v>0.08124590416749314</v>
       </c>
       <c r="L123">
-        <v>49.89873387779882</v>
+        <v>37.16115171127039</v>
       </c>
       <c r="M123">
-        <v>49.42696457236183</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>40.11041339712109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.08123559504747389</v>
+        <v>0.0781566053628921</v>
       </c>
       <c r="C124">
-        <v>0.0813184455037117</v>
+        <v>0.07880810648202891</v>
       </c>
       <c r="D124">
-        <v>0.0804407522082328</v>
+        <v>0.0777499675750732</v>
       </c>
       <c r="E124">
-        <v>0.0804471969604492</v>
+        <v>0.07777129858732219</v>
       </c>
       <c r="F124">
-        <v>5626048</v>
+        <v>776512</v>
       </c>
       <c r="G124">
-        <v>0.08119864146996654</v>
+        <v>0.08044479383012357</v>
       </c>
       <c r="H124">
-        <v>0.08121478669345375</v>
+        <v>0.08246018625795837</v>
       </c>
       <c r="I124">
-        <v>0.08124392082293826</v>
+        <v>0.08126122554143266</v>
       </c>
       <c r="L124">
-        <v>40.82399340306669</v>
+        <v>35.58238400277888</v>
       </c>
       <c r="M124">
-        <v>44.59752502051033</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.99137101111361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.08044525235891339</v>
+        <v>0.0777716934680938</v>
       </c>
       <c r="C125">
-        <v>0.08103162795305251</v>
+        <v>0.0799269154667854</v>
       </c>
       <c r="D125">
-        <v>0.08030737191438669</v>
+        <v>0.0777716934680938</v>
       </c>
       <c r="E125">
-        <v>0.0805887877941131</v>
+        <v>0.0794954150915145</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>23414720</v>
       </c>
       <c r="G125">
-        <v>0.08114320022670714</v>
+        <v>0.0803584866720682</v>
       </c>
       <c r="H125">
-        <v>0.08120846897363659</v>
+        <v>0.08204372934997078</v>
       </c>
       <c r="I125">
-        <v>0.08110836992661154</v>
+        <v>0.0813089584310849</v>
       </c>
       <c r="L125">
-        <v>42.91707854957396</v>
+        <v>46.65957623452931</v>
       </c>
       <c r="M125">
-        <v>45.62297948262192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>46.03616828423777</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.0805863440036773</v>
+        <v>0.079498566687107</v>
       </c>
       <c r="C126">
-        <v>0.08078593015670769</v>
+        <v>0.080517828464508</v>
       </c>
       <c r="D126">
-        <v>0.08010122179985039</v>
+        <v>0.0794975981116294</v>
       </c>
       <c r="E126">
-        <v>0.0801078230142593</v>
+        <v>0.0800588503479957</v>
       </c>
       <c r="F126">
-        <v>7816096</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.08104907502557551</v>
+        <v>0.08033124700624343</v>
       </c>
       <c r="H126">
-        <v>0.08108340725302693</v>
+        <v>0.08170279003679749</v>
       </c>
       <c r="I126">
-        <v>0.08102768808603282</v>
+        <v>0.08137230997284249</v>
       </c>
       <c r="L126">
-        <v>37.80682853752784</v>
+        <v>49.83124826246682</v>
       </c>
       <c r="M126">
-        <v>42.72976558406428</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>48.14354488294727</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.0801160857081413</v>
+        <v>0.0800613239407539</v>
       </c>
       <c r="C127">
-        <v>0.08047809451818461</v>
+        <v>0.0802825391292572</v>
       </c>
       <c r="D127">
-        <v>0.0795560479164123</v>
+        <v>0.0786145627498626</v>
       </c>
       <c r="E127">
-        <v>0.0804560333490371</v>
+        <v>0.0791432186961174</v>
       </c>
       <c r="F127">
-        <v>5280752</v>
+        <v>4767104</v>
       </c>
       <c r="G127">
-        <v>0.0809951621458902</v>
+        <v>0.08022324443259561</v>
       </c>
       <c r="H127">
-        <v>0.08095364347100253</v>
+        <v>0.08136889524757859</v>
       </c>
       <c r="I127">
-        <v>0.08099389970302577</v>
+        <v>0.08143024295568461</v>
       </c>
       <c r="L127">
-        <v>43.30522368064836</v>
+        <v>44.94533520544773</v>
       </c>
       <c r="M127">
-        <v>45.42800092769372</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>45.06370770972022</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.0804525390267372</v>
+        <v>0.07914465665817259</v>
       </c>
       <c r="C128">
-        <v>0.08055203408002851</v>
+        <v>0.07929223775863641</v>
       </c>
       <c r="D128">
-        <v>0.07987213879823681</v>
+        <v>0.07823480665683739</v>
       </c>
       <c r="E128">
-        <v>0.0804945528507232</v>
+        <v>0.078500285744667</v>
       </c>
       <c r="F128">
-        <v>267680</v>
+        <v>679072</v>
       </c>
       <c r="G128">
-        <v>0.08094965220996592</v>
+        <v>0.0800666118246021</v>
       </c>
       <c r="H128">
-        <v>0.08087399266660208</v>
+        <v>0.08097012639045711</v>
       </c>
       <c r="I128">
-        <v>0.08100886469086006</v>
+        <v>0.08143578916788097</v>
       </c>
       <c r="L128">
-        <v>43.92221017576263</v>
+        <v>41.71440599991185</v>
       </c>
       <c r="M128">
-        <v>45.73258953224157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>42.98434808433414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.0805093422532081</v>
+        <v>0.0784867405891418</v>
       </c>
       <c r="C129">
-        <v>0.08069348335266111</v>
+        <v>0.07916023582220071</v>
       </c>
       <c r="D129">
-        <v>0.0800689160823822</v>
+        <v>0.0781423673033714</v>
       </c>
       <c r="E129">
-        <v>0.0801485702395439</v>
+        <v>0.07900919765233989</v>
       </c>
       <c r="F129">
-        <v>4076736</v>
+        <v>360928</v>
       </c>
       <c r="G129">
-        <v>0.08087682657629118</v>
+        <v>0.07997048326348735</v>
       </c>
       <c r="H129">
-        <v>0.08083802051842209</v>
+        <v>0.08056158795952792</v>
       </c>
       <c r="I129">
-        <v>0.08100879291693365</v>
+        <v>0.08145157744487122</v>
       </c>
       <c r="L129">
-        <v>39.57076792139071</v>
+        <v>45.22100670291832</v>
       </c>
       <c r="M129">
-        <v>43.39002284955306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>45.14210939253385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.0801485702395439</v>
+        <v>0.0790162160992622</v>
       </c>
       <c r="C130">
-        <v>0.08067392557859419</v>
+        <v>0.0791365876793861</v>
       </c>
       <c r="D130">
-        <v>0.0801485702395439</v>
+        <v>0.07811537384986871</v>
       </c>
       <c r="E130">
-        <v>0.0806124657392501</v>
+        <v>0.078277014195919</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1382176</v>
       </c>
       <c r="G130">
-        <v>0.08085279377292381</v>
+        <v>0.07981653153007204</v>
       </c>
       <c r="H130">
-        <v>0.0808714289218187</v>
+        <v>0.08016121909022327</v>
       </c>
       <c r="I130">
-        <v>0.08100012689828869</v>
+        <v>0.08144682447115577</v>
       </c>
       <c r="L130">
-        <v>47.42725030465407</v>
+        <v>41.20828154861118</v>
       </c>
       <c r="M130">
-        <v>47.28872669916636</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>42.64172894269028</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.08061351627111429</v>
+        <v>0.0782766714692115</v>
       </c>
       <c r="C131">
-        <v>0.08063825219869609</v>
+        <v>0.0782875940203666</v>
       </c>
       <c r="D131">
-        <v>0.07983293384313581</v>
+        <v>0.0774266198277473</v>
       </c>
       <c r="E131">
-        <v>0.0799619406461715</v>
+        <v>0.0781542435288429</v>
       </c>
       <c r="F131">
-        <v>268160</v>
+        <v>1953856</v>
       </c>
       <c r="G131">
-        <v>0.08077180712503725</v>
+        <v>0.0796654144390512</v>
       </c>
       <c r="H131">
-        <v>0.08081413023173804</v>
+        <v>0.07980457879602906</v>
       </c>
       <c r="I131">
-        <v>0.08099488293131188</v>
+        <v>0.08141333634654678</v>
       </c>
       <c r="L131">
-        <v>39.35526560611898</v>
+        <v>40.52985710545556</v>
       </c>
       <c r="M131">
-        <v>42.83378246961723</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>42.21945310112946</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.07997361570596689</v>
+        <v>0.0781639218330383</v>
       </c>
       <c r="C132">
-        <v>0.080133318901062</v>
+        <v>0.0786445289850235</v>
       </c>
       <c r="D132">
-        <v>0.0793347060680389</v>
+        <v>0.0777008906006813</v>
       </c>
       <c r="E132">
-        <v>0.0800322070717811</v>
+        <v>0.0781861469149589</v>
       </c>
       <c r="F132">
-        <v>8292736</v>
+        <v>10363680</v>
       </c>
       <c r="G132">
-        <v>0.08070457075655942</v>
+        <v>0.07953093557322463</v>
       </c>
       <c r="H132">
-        <v>0.0807689111679792</v>
+        <v>0.0795528672635555</v>
       </c>
       <c r="I132">
-        <v>0.08095869620641066</v>
+        <v>0.08137988125284508</v>
       </c>
       <c r="L132">
-        <v>40.58409455610344</v>
+        <v>40.81471314149515</v>
       </c>
       <c r="M132">
-        <v>43.453450727823</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>42.37913953347157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.0800347477197647</v>
+        <v>0.07819277048110961</v>
       </c>
       <c r="C133">
-        <v>0.0800439715385437</v>
+        <v>0.0784353241324424</v>
       </c>
       <c r="D133">
-        <v>0.0774320662021637</v>
+        <v>0.0772412866353988</v>
       </c>
       <c r="E133">
-        <v>0.0774320662021637</v>
+        <v>0.0773776695132255</v>
       </c>
       <c r="F133">
-        <v>44902096</v>
+        <v>2611840</v>
       </c>
       <c r="G133">
-        <v>0.08040707034252344</v>
+        <v>0.07933518411322471</v>
       </c>
       <c r="H133">
-        <v>0.0805642761290073</v>
+        <v>0.07926204763352866</v>
       </c>
       <c r="I133">
-        <v>0.08083528404434519</v>
+        <v>0.08131858209768926</v>
       </c>
       <c r="L133">
-        <v>22.0143543720019</v>
+        <v>35.91087567479347</v>
       </c>
       <c r="M133">
-        <v>30.3452262104581</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>39.40695966742926</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.07744740694761269</v>
+        <v>0.07737360149621959</v>
       </c>
       <c r="C134">
-        <v>0.07826487720012661</v>
+        <v>0.0782122686505317</v>
       </c>
       <c r="D134">
-        <v>0.07739941775798791</v>
+        <v>0.0771927610039711</v>
       </c>
       <c r="E134">
-        <v>0.07798821479082101</v>
+        <v>0.078044481575489</v>
       </c>
       <c r="F134">
-        <v>30071840</v>
+        <v>1920352</v>
       </c>
       <c r="G134">
-        <v>0.08018717438327776</v>
+        <v>0.0792178475188851</v>
       </c>
       <c r="H134">
-        <v>0.08045185133814807</v>
+        <v>0.07899812869727607</v>
       </c>
       <c r="I134">
-        <v>0.08073727985223129</v>
+        <v>0.08118167494734124</v>
       </c>
       <c r="L134">
-        <v>29.74913701657757</v>
+        <v>42.33907065630211</v>
       </c>
       <c r="M134">
-        <v>34.87080330605546</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>42.96017388982807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.0779874995350837</v>
+        <v>0.07805038243532179</v>
       </c>
       <c r="C135">
-        <v>0.0781219154596328</v>
+        <v>0.078194074332714</v>
       </c>
       <c r="D135">
-        <v>0.07660930603742599</v>
+        <v>0.07775749266147609</v>
       </c>
       <c r="E135">
-        <v>0.0773116573691368</v>
+        <v>0.0779427215456962</v>
       </c>
       <c r="F135">
-        <v>31169280</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.07992576374562858</v>
+        <v>0.07910192697586793</v>
       </c>
       <c r="H135">
-        <v>0.08026083484292026</v>
+        <v>0.07869506031274791</v>
       </c>
       <c r="I135">
-        <v>0.08062383035818731</v>
+        <v>0.08085228055715557</v>
       </c>
       <c r="L135">
-        <v>26.19367371010578</v>
+        <v>41.62233754032375</v>
       </c>
       <c r="M135">
-        <v>32.13549327191776</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>42.55010413721163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.077324166893959</v>
+        <v>0.0779289007186889</v>
       </c>
       <c r="C136">
-        <v>0.0782182142138481</v>
+        <v>0.07837932556867599</v>
       </c>
       <c r="D136">
-        <v>0.077324166893959</v>
+        <v>0.07759480178356171</v>
       </c>
       <c r="E136">
-        <v>0.07806342840194699</v>
+        <v>0.0780684277415275</v>
       </c>
       <c r="F136">
-        <v>4722176</v>
+        <v>617728</v>
       </c>
       <c r="G136">
-        <v>0.07975646053256662</v>
+        <v>0.07900797250001879</v>
       </c>
       <c r="H136">
-        <v>0.08010733723640437</v>
+        <v>0.0785146467387676</v>
       </c>
       <c r="I136">
-        <v>0.08047230939070379</v>
+        <v>0.08055864026149109</v>
       </c>
       <c r="L136">
-        <v>35.78717336597855</v>
+        <v>42.96416276513678</v>
       </c>
       <c r="M136">
-        <v>37.95905421409898</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>43.27048950585579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.0780616775155067</v>
+        <v>0.0780671760439872</v>
       </c>
       <c r="C137">
-        <v>0.0783775076270103</v>
+        <v>0.0784196332097053</v>
       </c>
       <c r="D137">
-        <v>0.0778676122426986</v>
+        <v>0.0777679309248924</v>
       </c>
       <c r="E137">
-        <v>0.07815830409526819</v>
+        <v>0.0778381898999214</v>
       </c>
       <c r="F137">
-        <v>241408</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>0.0796111735837213</v>
+        <v>0.07890162862728266</v>
       </c>
       <c r="H137">
-        <v>0.07996346578001971</v>
+        <v>0.07839011773467061</v>
       </c>
       <c r="I137">
-        <v>0.08030920922756191</v>
+        <v>0.08029254277547197</v>
       </c>
       <c r="L137">
-        <v>36.95072449918351</v>
+        <v>41.02134660393316</v>
       </c>
       <c r="M137">
-        <v>38.67427915104412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>42.22610278069952</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.0781581178307533</v>
+        <v>0.0778402686119079</v>
       </c>
       <c r="C138">
-        <v>0.0785020664334297</v>
+        <v>0.0795292556285858</v>
       </c>
       <c r="D138">
-        <v>0.0772093087434768</v>
+        <v>0.0778255686163902</v>
       </c>
       <c r="E138">
-        <v>0.07740522921085349</v>
+        <v>0.0795136988162994</v>
       </c>
       <c r="F138">
-        <v>15161568</v>
+        <v>2742000</v>
       </c>
       <c r="G138">
-        <v>0.07941063318618787</v>
+        <v>0.07895727137173872</v>
       </c>
       <c r="H138">
-        <v>0.07979315258562561</v>
+        <v>0.07831948213279244</v>
       </c>
       <c r="I138">
-        <v>0.08015313123663262</v>
+        <v>0.08006047730644542</v>
       </c>
       <c r="L138">
-        <v>31.8045076119947</v>
+        <v>56.95647976176763</v>
       </c>
       <c r="M138">
-        <v>35.20502017646274</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>51.41612225067151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.0774152725934982</v>
+        <v>0.07951070368289941</v>
       </c>
       <c r="C139">
-        <v>0.0783445537090301</v>
+        <v>0.0795476362109184</v>
       </c>
       <c r="D139">
-        <v>0.07515250146389001</v>
+        <v>0.07895930111408229</v>
       </c>
       <c r="E139">
-        <v>0.07833389937877649</v>
+        <v>0.0795070827007293</v>
       </c>
       <c r="F139">
-        <v>37055392</v>
+        <v>5858992</v>
       </c>
       <c r="G139">
-        <v>0.07931274829460502</v>
+        <v>0.07900725421982877</v>
       </c>
       <c r="H139">
-        <v>0.07963553778827186</v>
+        <v>0.07831256166100498</v>
       </c>
       <c r="I139">
-        <v>0.08006866077582037</v>
+        <v>0.07980471452077227</v>
       </c>
       <c r="L139">
-        <v>42.847274977224</v>
+        <v>56.88820001543757</v>
       </c>
       <c r="M139">
-        <v>42.10238476311626</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>51.38136611875232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.07833383232355109</v>
+        <v>0.07951401919126511</v>
       </c>
       <c r="C140">
-        <v>0.0787051767110824</v>
+        <v>0.0802792385220527</v>
       </c>
       <c r="D140">
-        <v>0.07793413102626801</v>
+        <v>0.0794923081994056</v>
       </c>
       <c r="E140">
-        <v>0.07853554934263229</v>
+        <v>0.0799846276640892</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>8208960</v>
       </c>
       <c r="G140">
-        <v>0.07924209384442568</v>
+        <v>0.07909610635112517</v>
       </c>
       <c r="H140">
-        <v>0.07950003370642658</v>
+        <v>0.07845629975199694</v>
       </c>
       <c r="I140">
-        <v>0.08002170249819751</v>
+        <v>0.07959472239017483</v>
       </c>
       <c r="L140">
-        <v>45.02198080574573</v>
+        <v>60.71261965112609</v>
       </c>
       <c r="M140">
-        <v>43.50858009496409</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>53.80848045865599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.07853430509567259</v>
+        <v>0.07998684048652641</v>
       </c>
       <c r="C141">
-        <v>0.07885861396789549</v>
+        <v>0.0802537947893142</v>
       </c>
       <c r="D141">
-        <v>0.07829777896404259</v>
+        <v>0.07966737449169151</v>
       </c>
       <c r="E141">
-        <v>0.0784196034073829</v>
+        <v>0.0798189416527748</v>
       </c>
       <c r="F141">
-        <v>783872</v>
+        <v>11839296</v>
       </c>
       <c r="G141">
-        <v>0.0791673219865127</v>
+        <v>0.07916181865127513</v>
       </c>
       <c r="H141">
-        <v>0.07935168892145153</v>
+        <v>0.07857886739075179</v>
       </c>
       <c r="I141">
-        <v>0.07993209213018414</v>
+        <v>0.07941245213150976</v>
       </c>
       <c r="L141">
-        <v>43.94045222556289</v>
+        <v>58.68078033112308</v>
       </c>
       <c r="M141">
-        <v>42.86393734829339</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>52.82318089182232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.0784261599183082</v>
+        <v>0.0798834040760994</v>
       </c>
       <c r="C142">
-        <v>0.0794150531291961</v>
+        <v>0.08024042099714269</v>
       </c>
       <c r="D142">
-        <v>0.0782362818717956</v>
+        <v>0.0798260644078254</v>
       </c>
       <c r="E142">
-        <v>0.0791588872671127</v>
+        <v>0.079971931874752</v>
       </c>
       <c r="F142">
-        <v>16079776</v>
+        <v>4112032</v>
       </c>
       <c r="G142">
-        <v>0.07916655519383997</v>
+        <v>0.07923546530795483</v>
       </c>
       <c r="H142">
-        <v>0.07924468293786044</v>
+        <v>0.07874157726764675</v>
       </c>
       <c r="I142">
-        <v>0.07987283542752263</v>
+        <v>0.07930417060852048</v>
       </c>
       <c r="L142">
-        <v>52.18045018716472</v>
+        <v>60.06897755922506</v>
       </c>
       <c r="M142">
-        <v>48.1400787156475</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>53.66684954028555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.0791612640023231</v>
+        <v>0.07996314018964761</v>
       </c>
       <c r="C143">
-        <v>0.0793506801128387</v>
+        <v>0.0800467431545257</v>
       </c>
       <c r="D143">
-        <v>0.0784638822078704</v>
+        <v>0.07907126843929289</v>
       </c>
       <c r="E143">
-        <v>0.0791897997260093</v>
+        <v>0.0793318673968315</v>
       </c>
       <c r="F143">
-        <v>9959392</v>
+        <v>7202688</v>
       </c>
       <c r="G143">
-        <v>0.07916866833312809</v>
+        <v>0.07924422913421635</v>
       </c>
       <c r="H143">
-        <v>0.07914231084287163</v>
+        <v>0.07879976555705066</v>
       </c>
       <c r="I143">
-        <v>0.07979500318566954</v>
+        <v>0.07917543078462279</v>
       </c>
       <c r="L143">
-        <v>52.50882157616469</v>
+        <v>51.86725785444617</v>
       </c>
       <c r="M143">
-        <v>48.35483347976943</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>49.66519038818551</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.07919874042272559</v>
+        <v>0.0793355405330658</v>
       </c>
       <c r="C144">
-        <v>0.0794610902667045</v>
+        <v>0.0798088982701301</v>
       </c>
       <c r="D144">
-        <v>0.0789911821484565</v>
+        <v>0.0793239399790763</v>
       </c>
       <c r="E144">
-        <v>0.0792166441679</v>
+        <v>0.07966301590204231</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0.07917302977265281</v>
+        <v>0.07928230065856416</v>
       </c>
       <c r="H144">
-        <v>0.07908078320324416</v>
+        <v>0.07889435142278668</v>
       </c>
       <c r="I144">
-        <v>0.07976100097099935</v>
+        <v>0.0790534359713395</v>
       </c>
       <c r="L144">
-        <v>52.82529870903512</v>
+        <v>55.41078758290787</v>
       </c>
       <c r="M144">
-        <v>48.55406933231847</v>
+        <v>51.6729336731127</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -5806,37 +5794,34 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.07921496778726569</v>
+        <v>0.07966463267803189</v>
       </c>
       <c r="C145">
-        <v>0.0821516960859298</v>
+        <v>0.07985487580299371</v>
       </c>
       <c r="D145">
-        <v>0.0791978612542152</v>
+        <v>0.0794949382543563</v>
       </c>
       <c r="E145">
-        <v>0.0821516960859298</v>
+        <v>0.079607605934143</v>
       </c>
       <c r="F145">
-        <v>28663968</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0.07944381761931435</v>
+        <v>0.07931187386543496</v>
       </c>
       <c r="H145">
-        <v>0.07915892861783499</v>
+        <v>0.07889996096491809</v>
       </c>
       <c r="I145">
-        <v>0.07979499126474059</v>
+        <v>0.07890688652793562</v>
       </c>
       <c r="L145">
-        <v>74.0752488872581</v>
+        <v>54.65337918253933</v>
       </c>
       <c r="M145">
-        <v>64.62345612973508</v>
-      </c>
-      <c r="O145" t="s">
-        <v>195</v>
+        <v>51.30417500049523</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -5844,37 +5829,34 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.082149937748909</v>
+        <v>0.0796097815036773</v>
       </c>
       <c r="C146">
-        <v>0.0899984762072563</v>
+        <v>0.07988213002681729</v>
       </c>
       <c r="D146">
-        <v>0.082149937748909</v>
+        <v>0.0794962495565414</v>
       </c>
       <c r="E146">
-        <v>0.0878245532512664</v>
+        <v>0.0798285156488418</v>
       </c>
       <c r="F146">
-        <v>391162432</v>
+        <v>1036368</v>
       </c>
       <c r="G146">
-        <v>0.08020570267676454</v>
+        <v>0.07935884130029013</v>
       </c>
       <c r="H146">
-        <v>0.07954476512968535</v>
+        <v>0.0788884442299604</v>
       </c>
       <c r="I146">
-        <v>0.08001803035537397</v>
+        <v>0.07884528040885921</v>
       </c>
       <c r="L146">
-        <v>86.90312897080821</v>
+        <v>57.27288179153087</v>
       </c>
       <c r="M146">
-        <v>78.56172539700614</v>
-      </c>
-      <c r="O146" t="s">
-        <v>195</v>
+        <v>52.75186441762914</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -5882,37 +5864,34 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.08786804974079131</v>
+        <v>0.07982666790485381</v>
       </c>
       <c r="C147">
-        <v>0.0899916365742683</v>
+        <v>0.0806782692670822</v>
       </c>
       <c r="D147">
-        <v>0.08658760040998451</v>
+        <v>0.07982666790485381</v>
       </c>
       <c r="E147">
-        <v>0.0868776366114616</v>
+        <v>0.0801450833678245</v>
       </c>
       <c r="F147">
-        <v>355990848</v>
+        <v>5547824</v>
       </c>
       <c r="G147">
-        <v>0.08081224212537336</v>
+        <v>0.07943031785188416</v>
       </c>
       <c r="H147">
-        <v>0.07986584529280658</v>
+        <v>0.07893853746354576</v>
       </c>
       <c r="I147">
-        <v>0.08021276046832398</v>
+        <v>0.07883915752172466</v>
       </c>
       <c r="L147">
-        <v>79.51473051072597</v>
+        <v>60.91296236948611</v>
       </c>
       <c r="M147">
-        <v>73.36559015106734</v>
-      </c>
-      <c r="O147" t="s">
-        <v>195</v>
+        <v>54.82450084632062</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -5920,37 +5899,34 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.0868058651685714</v>
+        <v>0.080140471458435</v>
       </c>
       <c r="C148">
-        <v>0.08699841052293771</v>
+        <v>0.0806144475936889</v>
       </c>
       <c r="D148">
-        <v>0.08488359302282331</v>
+        <v>0.0798811092972755</v>
       </c>
       <c r="E148">
-        <v>0.0858211144804954</v>
+        <v>0.0805471688508987</v>
       </c>
       <c r="F148">
-        <v>108371584</v>
+        <v>2516528</v>
       </c>
       <c r="G148">
-        <v>0.08126759415765718</v>
+        <v>0.07953184976088548</v>
       </c>
       <c r="H148">
-        <v>0.08013217337429518</v>
+        <v>0.07904088161885733</v>
       </c>
       <c r="I148">
-        <v>0.08037974784771597</v>
+        <v>0.07882651612162588</v>
       </c>
       <c r="L148">
-        <v>71.84738180860681</v>
+        <v>65.15480527107967</v>
       </c>
       <c r="M148">
-        <v>67.96425036965171</v>
-      </c>
-      <c r="O148" t="s">
-        <v>195</v>
+        <v>57.38173594761586</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -5958,37 +5934,34 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.0858276858925819</v>
+        <v>0.0805484056472778</v>
       </c>
       <c r="C149">
-        <v>0.0870114341378212</v>
+        <v>0.08136950433254241</v>
       </c>
       <c r="D149">
-        <v>0.08511243760585779</v>
+        <v>0.0801500529050827</v>
       </c>
       <c r="E149">
-        <v>0.08647566288709641</v>
+        <v>0.0802254602313041</v>
       </c>
       <c r="F149">
-        <v>69313152</v>
+        <v>19442128</v>
       </c>
       <c r="G149">
-        <v>0.08174105495124256</v>
+        <v>0.07959490525819626</v>
       </c>
       <c r="H149">
-        <v>0.08044852800667281</v>
+        <v>0.07910169474780555</v>
       </c>
       <c r="I149">
-        <v>0.0805460634330908</v>
+        <v>0.07884584839145339</v>
       </c>
       <c r="L149">
-        <v>73.62027885959289</v>
+        <v>59.35667201368629</v>
       </c>
       <c r="M149">
-        <v>69.46416564699457</v>
-      </c>
-      <c r="O149" t="s">
-        <v>195</v>
+        <v>54.71310776582763</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -5996,37 +5969,34 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.08647739142179479</v>
+        <v>0.0802251026034355</v>
       </c>
       <c r="C150">
-        <v>0.0886161923408508</v>
+        <v>0.08087565004825591</v>
       </c>
       <c r="D150">
-        <v>0.0863040536642074</v>
+        <v>0.08011440932750701</v>
       </c>
       <c r="E150">
-        <v>0.0871799662709236</v>
+        <v>0.08013277500867839</v>
       </c>
       <c r="F150">
-        <v>108106624</v>
+        <v>9713152</v>
       </c>
       <c r="G150">
-        <v>0.08223550143484992</v>
+        <v>0.07964380250824009</v>
       </c>
       <c r="H150">
-        <v>0.08077690303325648</v>
+        <v>0.07919448278844352</v>
       </c>
       <c r="I150">
-        <v>0.08074387460947033</v>
+        <v>0.07894661203026769</v>
       </c>
       <c r="L150">
-        <v>75.48880724558428</v>
+        <v>57.6926370231318</v>
       </c>
       <c r="M150">
-        <v>71.03560967747144</v>
-      </c>
-      <c r="O150" t="s">
-        <v>195</v>
+        <v>53.9348625752511</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -6034,37 +6004,37 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.0871743634343147</v>
+        <v>0.0801336541771888</v>
       </c>
       <c r="C151">
-        <v>0.087181843817234</v>
+        <v>0.0801642760634422</v>
       </c>
       <c r="D151">
-        <v>0.0859305262565612</v>
+        <v>0.0793450772762298</v>
       </c>
       <c r="E151">
-        <v>0.08628439158201209</v>
+        <v>0.0795765221118927</v>
       </c>
       <c r="F151">
-        <v>23348352</v>
+        <v>14781456</v>
       </c>
       <c r="G151">
-        <v>0.08260358235731921</v>
+        <v>0.07963768610857214</v>
       </c>
       <c r="H151">
-        <v>0.08109302558004852</v>
+        <v>0.079265596717596</v>
       </c>
       <c r="I151">
-        <v>0.08090713769197458</v>
+        <v>0.07902024313807485</v>
       </c>
       <c r="J151">
-        <v>0.08392661054929093</v>
+        <v>0.08078763107458746</v>
       </c>
       <c r="L151">
-        <v>68.5435163799536</v>
+        <v>48.51051416259678</v>
       </c>
       <c r="M151">
-        <v>66.35915536926288</v>
+        <v>49.3939294092864</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -6072,37 +6042,37 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.0862987339496612</v>
+        <v>0.0795894339680671</v>
       </c>
       <c r="C152">
-        <v>0.0863640382885932</v>
+        <v>0.0797907635569572</v>
       </c>
       <c r="D152">
-        <v>0.0848425775766372</v>
+        <v>0.0782919526100158</v>
       </c>
       <c r="E152">
-        <v>0.0852870494127273</v>
+        <v>0.0785565823316574</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>10327248</v>
       </c>
       <c r="G152">
-        <v>0.08284753390781084</v>
+        <v>0.07953940394703443</v>
       </c>
       <c r="H152">
-        <v>0.08135576769709582</v>
+        <v>0.07928411848843094</v>
       </c>
       <c r="I152">
-        <v>0.08104007244110102</v>
+        <v>0.079081538071235</v>
       </c>
       <c r="J152">
-        <v>0.08394462960708479</v>
+        <v>0.08075808076011157</v>
       </c>
       <c r="L152">
-        <v>61.45932105417874</v>
+        <v>36.5206144069733</v>
       </c>
       <c r="M152">
-        <v>61.50329674979177</v>
+        <v>42.35276854120973</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -6110,37 +6080,37 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.0852922424674034</v>
+        <v>0.0785623118281364</v>
       </c>
       <c r="C153">
-        <v>0.08541633188724509</v>
+        <v>0.0791289359331131</v>
       </c>
       <c r="D153">
-        <v>0.0826805010437965</v>
+        <v>0.07838099449872971</v>
       </c>
       <c r="E153">
-        <v>0.0832203775644302</v>
+        <v>0.07880474627017971</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1274560</v>
       </c>
       <c r="G153">
-        <v>0.08288142878568533</v>
+        <v>0.07947261688550218</v>
       </c>
       <c r="H153">
-        <v>0.08164518326520916</v>
+        <v>0.07935547232627864</v>
       </c>
       <c r="I153">
-        <v>0.08110617697238916</v>
+        <v>0.07910275955994919</v>
       </c>
       <c r="J153">
-        <v>0.08393503686479797</v>
+        <v>0.08073220878011247</v>
       </c>
       <c r="L153">
-        <v>49.52653276232818</v>
+        <v>40.54313560157104</v>
       </c>
       <c r="M153">
-        <v>52.86983167330717</v>
+        <v>44.42850215568072</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -6148,37 +6118,37 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.0832208767533302</v>
+        <v>0.0788125693798065</v>
       </c>
       <c r="C154">
-        <v>0.08394484221935269</v>
+        <v>0.0792980343103408</v>
       </c>
       <c r="D154">
-        <v>0.0824894309043884</v>
+        <v>0.0785074084997177</v>
       </c>
       <c r="E154">
-        <v>0.0831940621137619</v>
+        <v>0.0790633782744407</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2129264</v>
       </c>
       <c r="G154">
-        <v>0.08290984999732866</v>
+        <v>0.07943541337540568</v>
       </c>
       <c r="H154">
-        <v>0.08190547563135619</v>
+        <v>0.07940641716122623</v>
       </c>
       <c r="I154">
-        <v>0.08119773914416625</v>
+        <v>0.07914582888285314</v>
       </c>
       <c r="J154">
-        <v>0.08392522262968492</v>
+        <v>0.08071010506480557</v>
       </c>
       <c r="L154">
-        <v>49.38916725586957</v>
+        <v>44.65501188872225</v>
       </c>
       <c r="M154">
-        <v>52.76825746047206</v>
+        <v>46.58708021413219</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -6186,37 +6156,37 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.08319972455501549</v>
+        <v>0.0790548548102378</v>
       </c>
       <c r="C155">
-        <v>0.0833929777145385</v>
+        <v>0.0791885182261467</v>
       </c>
       <c r="D155">
-        <v>0.0817961171269416</v>
+        <v>0.0784716308116912</v>
       </c>
       <c r="E155">
-        <v>0.0833228603005409</v>
+        <v>0.07851424068212499</v>
       </c>
       <c r="F155">
-        <v>9733184</v>
+        <v>1661952</v>
       </c>
       <c r="G155">
-        <v>0.08294739638852977</v>
+        <v>0.07935167040328925</v>
       </c>
       <c r="H155">
-        <v>0.08220603577792639</v>
+        <v>0.07943499311804766</v>
       </c>
       <c r="I155">
-        <v>0.08128887489438053</v>
+        <v>0.07911312306920683</v>
       </c>
       <c r="J155">
-        <v>0.08391724432068964</v>
+        <v>0.08068102076834623</v>
       </c>
       <c r="L155">
-        <v>50.15046119252601</v>
+        <v>38.3241604820351</v>
       </c>
       <c r="M155">
-        <v>53.24175460470563</v>
+        <v>42.78685275815939</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -6224,37 +6194,37 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.08332113921642301</v>
+        <v>0.07851354777812949</v>
       </c>
       <c r="C156">
-        <v>0.0844493433833122</v>
+        <v>0.0820536315441131</v>
       </c>
       <c r="D156">
-        <v>0.0831027254462242</v>
+        <v>0.07822328805923461</v>
       </c>
       <c r="E156">
-        <v>0.0840040892362594</v>
+        <v>0.0805919840931892</v>
       </c>
       <c r="F156">
-        <v>11963456</v>
+        <v>104806336</v>
       </c>
       <c r="G156">
-        <v>0.083043459374687</v>
+        <v>0.07946442619328015</v>
       </c>
       <c r="H156">
-        <v>0.08250306881964202</v>
+        <v>0.07956117093563075</v>
       </c>
       <c r="I156">
-        <v>0.08141875043511386</v>
+        <v>0.07913089419404661</v>
       </c>
       <c r="J156">
-        <v>0.08391839458447203</v>
+        <v>0.08067984147463554</v>
       </c>
       <c r="L156">
-        <v>54.24567776624061</v>
+        <v>61.53600195121994</v>
       </c>
       <c r="M156">
-        <v>55.76751833582458</v>
+        <v>57.05955144753276</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -6262,37 +6232,40 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.08401688933372491</v>
+        <v>0.0805926769971847</v>
       </c>
       <c r="C157">
-        <v>0.0845666974782943</v>
+        <v>0.08287160843610759</v>
       </c>
       <c r="D157">
-        <v>0.08071098476648331</v>
+        <v>0.0802280083298683</v>
       </c>
       <c r="E157">
-        <v>0.0816766992211341</v>
+        <v>0.0821968391537666</v>
       </c>
       <c r="F157">
-        <v>67097216</v>
+        <v>121425728</v>
       </c>
       <c r="G157">
-        <v>0.08291920845163674</v>
+        <v>0.07971282737150619</v>
       </c>
       <c r="H157">
-        <v>0.08267898857593532</v>
+        <v>0.07977910339832302</v>
       </c>
       <c r="I157">
-        <v>0.0814594392975171</v>
+        <v>0.07923268154263492</v>
       </c>
       <c r="J157">
-        <v>0.08388870325515631</v>
+        <v>0.08069993415912734</v>
       </c>
       <c r="L157">
-        <v>41.2279297790537</v>
+        <v>71.01502996109498</v>
       </c>
       <c r="M157">
-        <v>46.52160231056562</v>
+        <v>64.43884381135776</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -6300,37 +6273,40 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.081730268895626</v>
+        <v>0.0822186097502708</v>
       </c>
       <c r="C158">
-        <v>0.08245993405580521</v>
+        <v>0.0826670229434967</v>
       </c>
       <c r="D158">
-        <v>0.0801950693130493</v>
+        <v>0.0816224217414856</v>
       </c>
       <c r="E158">
-        <v>0.0803287699818611</v>
+        <v>0.0823072865605354</v>
       </c>
       <c r="F158">
-        <v>12837440</v>
+        <v>61306432</v>
       </c>
       <c r="G158">
-        <v>0.0826837140452935</v>
+        <v>0.07994868729778157</v>
       </c>
       <c r="H158">
-        <v>0.08282516561448569</v>
+        <v>0.07991878278553481</v>
       </c>
       <c r="I158">
-        <v>0.08145391320188836</v>
+        <v>0.07935958156983053</v>
       </c>
       <c r="J158">
-        <v>0.08384155182107293</v>
+        <v>0.08072122359490759</v>
       </c>
       <c r="L158">
-        <v>35.65324591006596</v>
+        <v>71.5577128510643</v>
       </c>
       <c r="M158">
-        <v>42.16176739943381</v>
+        <v>64.88607482305602</v>
+      </c>
+      <c r="O158" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -6338,37 +6314,37 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.0803463086485862</v>
+        <v>0.08230548352003091</v>
       </c>
       <c r="C159">
-        <v>0.0816773697733879</v>
+        <v>0.08254584670066829</v>
       </c>
       <c r="D159">
-        <v>0.0803463086485862</v>
+        <v>0.0814849734306335</v>
       </c>
       <c r="E159">
-        <v>0.08092641085386269</v>
+        <v>0.0814945250749588</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>15848128</v>
       </c>
       <c r="G159">
-        <v>0.08252395920970887</v>
+        <v>0.08008921800479768</v>
       </c>
       <c r="H159">
-        <v>0.08295479118823999</v>
+        <v>0.0800181549042463</v>
       </c>
       <c r="I159">
-        <v>0.08147984122236565</v>
+        <v>0.07944242581725117</v>
       </c>
       <c r="J159">
-        <v>0.08380294068243439</v>
+        <v>0.08073146599861689</v>
       </c>
       <c r="L159">
-        <v>39.71894541756866</v>
+        <v>61.95469739355339</v>
       </c>
       <c r="M159">
-        <v>44.63905678072624</v>
+        <v>59.00524106892091</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -6376,654 +6352,645 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.0809028372168541</v>
+        <v>0.0813000053167343</v>
       </c>
       <c r="C160">
-        <v>0.08123981952667229</v>
+        <v>0.0820593386888504</v>
       </c>
       <c r="D160">
-        <v>0.0795578807592392</v>
+        <v>0.0809627994894981</v>
       </c>
       <c r="E160">
-        <v>0.0796454921364784</v>
+        <v>0.0816707760095596</v>
       </c>
       <c r="F160">
-        <v>16620608</v>
+        <v>20568448</v>
       </c>
       <c r="G160">
-        <v>0.08226228038486973</v>
+        <v>0.08023299600523058</v>
       </c>
       <c r="H160">
-        <v>0.08301028832793231</v>
+        <v>0.08010246232151981</v>
       </c>
       <c r="I160">
-        <v>0.08144760876893993</v>
+        <v>0.07955555121103917</v>
       </c>
       <c r="J160">
-        <v>0.08374787513877936</v>
+        <v>0.08074390719081481</v>
       </c>
       <c r="L160">
-        <v>34.46777948117322</v>
+        <v>63.16079447906802</v>
       </c>
       <c r="M160">
-        <v>40.62300134279625</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>59.85495424592532</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.0796732604503631</v>
+        <v>0.0816525891423225</v>
       </c>
       <c r="C161">
-        <v>0.0798656120896339</v>
+        <v>0.0818175002932548</v>
       </c>
       <c r="D161">
-        <v>0.07630292326211929</v>
+        <v>0.0809808671474456</v>
       </c>
       <c r="E161">
-        <v>0.0771098658442497</v>
+        <v>0.0813428685069084</v>
       </c>
       <c r="F161">
-        <v>79102336</v>
+        <v>6120000</v>
       </c>
       <c r="G161">
-        <v>0.08179387906299518</v>
+        <v>0.08033389350538311</v>
       </c>
       <c r="H161">
-        <v>0.08294480144977565</v>
+        <v>0.08017865866422649</v>
       </c>
       <c r="I161">
-        <v>0.08135253960887587</v>
+        <v>0.07966183871030805</v>
       </c>
       <c r="J161">
-        <v>0.08365995448587168</v>
+        <v>0.08075184045327963</v>
       </c>
       <c r="L161">
-        <v>26.62787544123316</v>
+        <v>59.23072081626015</v>
       </c>
       <c r="M161">
-        <v>34.08561461346065</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>57.4683661250899</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.07711575925350179</v>
+        <v>0.0813643261790275</v>
       </c>
       <c r="C162">
-        <v>0.0776456147432327</v>
+        <v>0.0817692577838897</v>
       </c>
       <c r="D162">
-        <v>0.0760907679796218</v>
+        <v>0.08103879541158671</v>
       </c>
       <c r="E162">
-        <v>0.0773675888776779</v>
+        <v>0.0817073211073875</v>
       </c>
       <c r="F162">
-        <v>3901952</v>
+        <v>4929600</v>
       </c>
       <c r="G162">
-        <v>0.08139148904614815</v>
+        <v>0.08045875056011079</v>
       </c>
       <c r="H162">
-        <v>0.08285523653030391</v>
+        <v>0.08026542812585827</v>
       </c>
       <c r="I162">
-        <v>0.08126371900240577</v>
+        <v>0.079779211183389</v>
       </c>
       <c r="J162">
-        <v>0.08357661189503468</v>
+        <v>0.08076449582618171</v>
       </c>
       <c r="L162">
-        <v>28.48781152719636</v>
+        <v>62.17371258068844</v>
       </c>
       <c r="M162">
-        <v>35.22660375197271</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>59.40575253712503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.07737433165311811</v>
+        <v>0.0817109495401382</v>
       </c>
       <c r="C163">
-        <v>0.07777832448482511</v>
+        <v>0.08212862908840179</v>
       </c>
       <c r="D163">
-        <v>0.07659304887056349</v>
+        <v>0.08056691288948049</v>
       </c>
       <c r="E163">
-        <v>0.076717734336853</v>
+        <v>0.0811745747923851</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0.08096660225439405</v>
+        <v>0.08052382549031754</v>
       </c>
       <c r="H163">
-        <v>0.08273163326084609</v>
+        <v>0.08035756349563594</v>
       </c>
       <c r="I163">
-        <v>0.08123990794022874</v>
+        <v>0.07990577469269432</v>
       </c>
       <c r="J163">
-        <v>0.08348576583466141</v>
+        <v>0.08076992733566786</v>
       </c>
       <c r="L163">
-        <v>26.57671069873563</v>
+        <v>55.57624672762599</v>
       </c>
       <c r="M163">
-        <v>33.64509823632607</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>55.4309070390004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.0767094418406486</v>
+        <v>0.0811821967363357</v>
       </c>
       <c r="C164">
-        <v>0.0781868770718574</v>
+        <v>0.08164796978235241</v>
       </c>
       <c r="D164">
-        <v>0.07645641267299649</v>
+        <v>0.080991506576538</v>
       </c>
       <c r="E164">
-        <v>0.0781681016087532</v>
+        <v>0.081305056810379</v>
       </c>
       <c r="F164">
-        <v>867200</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.08071219310479033</v>
+        <v>0.08059484651941404</v>
       </c>
       <c r="H164">
-        <v>0.08267920613288875</v>
+        <v>0.08043966554105278</v>
       </c>
       <c r="I164">
-        <v>0.08124590416749314</v>
+        <v>0.08001446053385732</v>
       </c>
       <c r="J164">
-        <v>0.08341533319590766</v>
+        <v>0.08077701514327994</v>
       </c>
       <c r="L164">
-        <v>37.16113416594688</v>
+        <v>56.83822641586168</v>
       </c>
       <c r="M164">
-        <v>40.10783498423206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>56.20384148691124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.0781566053628921</v>
+        <v>0.08130421489477151</v>
       </c>
       <c r="C165">
-        <v>0.07880810648202891</v>
+        <v>0.081571064889431</v>
       </c>
       <c r="D165">
-        <v>0.0777499675750732</v>
+        <v>0.0795934870839119</v>
       </c>
       <c r="E165">
-        <v>0.07777129858732219</v>
+        <v>0.07970386743545529</v>
       </c>
       <c r="F165">
-        <v>776512</v>
+        <v>9054176</v>
       </c>
       <c r="G165">
-        <v>0.08044483905774777</v>
+        <v>0.08051384842087234</v>
       </c>
       <c r="H165">
-        <v>0.08246018625795838</v>
+        <v>0.08044447861611839</v>
       </c>
       <c r="I165">
-        <v>0.08126122554143266</v>
+        <v>0.08007316539684929</v>
       </c>
       <c r="J165">
-        <v>0.08334057777062839</v>
+        <v>0.0807628012663551</v>
       </c>
       <c r="L165">
-        <v>35.58236831887158</v>
+        <v>40.82687967638098</v>
       </c>
       <c r="M165">
-        <v>38.98899705324051</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>45.72448904501604</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.0777716934680938</v>
+        <v>0.0797291100025177</v>
       </c>
       <c r="C166">
-        <v>0.0799269154667854</v>
+        <v>0.0801265314221382</v>
       </c>
       <c r="D166">
-        <v>0.0777716934680938</v>
+        <v>0.0793776139616966</v>
       </c>
       <c r="E166">
-        <v>0.0794954150915145</v>
+        <v>0.08010132610797881</v>
       </c>
       <c r="F166">
-        <v>23414720</v>
+        <v>5195488</v>
       </c>
       <c r="G166">
-        <v>0.0803585277880902</v>
+        <v>0.08047634639242747</v>
       </c>
       <c r="H166">
-        <v>0.08204372934997077</v>
+        <v>0.08045811913907525</v>
       </c>
       <c r="I166">
-        <v>0.0813089584310849</v>
+        <v>0.08014092867573099</v>
       </c>
       <c r="J166">
-        <v>0.08328964846362026</v>
+        <v>0.08075404000597926</v>
       </c>
       <c r="L166">
-        <v>46.65955676375484</v>
+        <v>45.14233351394001</v>
       </c>
       <c r="M166">
-        <v>46.03333043797086</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>48.30129701861993</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.079498566687107</v>
+        <v>0.08009745180606841</v>
       </c>
       <c r="C167">
-        <v>0.080517828464508</v>
+        <v>0.0802219659090042</v>
       </c>
       <c r="D167">
-        <v>0.0794975981116294</v>
+        <v>0.0795797854661941</v>
       </c>
       <c r="E167">
-        <v>0.0800588503479957</v>
+        <v>0.0797541588544845</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1951712</v>
       </c>
       <c r="G167">
-        <v>0.08033128438444526</v>
+        <v>0.08041069297988719</v>
       </c>
       <c r="H167">
-        <v>0.08170279003679748</v>
+        <v>0.08043857291340825</v>
       </c>
       <c r="I167">
-        <v>0.08137230997284249</v>
+        <v>0.08020479430754975</v>
       </c>
       <c r="J167">
-        <v>0.08324685643559875</v>
+        <v>0.08074079654701906</v>
       </c>
       <c r="L167">
-        <v>49.83122820334383</v>
+        <v>42.12358698639179</v>
       </c>
       <c r="M167">
-        <v>48.14060570768483</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>46.23642180353253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.0800613239407539</v>
+        <v>0.079759731888771</v>
       </c>
       <c r="C168">
-        <v>0.0802825391292572</v>
+        <v>0.07980832457542419</v>
       </c>
       <c r="D168">
-        <v>0.0786145627498626</v>
+        <v>0.0784369930624961</v>
       </c>
       <c r="E168">
-        <v>0.0791432186961174</v>
+        <v>0.0789936482906341</v>
       </c>
       <c r="F168">
-        <v>4767104</v>
+        <v>14677824</v>
       </c>
       <c r="G168">
-        <v>0.08022327841277908</v>
+        <v>0.08028187073540964</v>
       </c>
       <c r="H168">
-        <v>0.08136889524757859</v>
+        <v>0.08036089688539501</v>
       </c>
       <c r="I168">
-        <v>0.08143024295568461</v>
+        <v>0.08018745929002757</v>
       </c>
       <c r="J168">
-        <v>0.08319250361785727</v>
+        <v>0.08071765551051065</v>
       </c>
       <c r="L168">
-        <v>44.94531953920655</v>
+        <v>36.16374127584017</v>
       </c>
       <c r="M168">
-        <v>45.06124674373831</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>42.00056445177704</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.07914465665817259</v>
+        <v>0.0789934322237968</v>
       </c>
       <c r="C169">
-        <v>0.07929223775863641</v>
+        <v>0.0794415920972824</v>
       </c>
       <c r="D169">
-        <v>0.07823480665683739</v>
+        <v>0.0783792212605476</v>
       </c>
       <c r="E169">
-        <v>0.078500285744667</v>
+        <v>0.0794415920972824</v>
       </c>
       <c r="F169">
-        <v>679072</v>
+        <v>6653184</v>
       </c>
       <c r="G169">
-        <v>0.08006664271567798</v>
+        <v>0.08020548176830716</v>
       </c>
       <c r="H169">
-        <v>0.08097012639045711</v>
+        <v>0.08032170347869393</v>
       </c>
       <c r="I169">
-        <v>0.08143578916788097</v>
+        <v>0.08018527626991268</v>
       </c>
       <c r="J169">
-        <v>0.08313035503675542</v>
+        <v>0.08070075400834868</v>
       </c>
       <c r="L169">
-        <v>41.71439294884131</v>
+        <v>41.63552659758526</v>
       </c>
       <c r="M169">
-        <v>42.98218755443905</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>45.18588043416291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.0784867405891418</v>
+        <v>0.0794607996940612</v>
       </c>
       <c r="C170">
-        <v>0.07916023582220071</v>
+        <v>0.0799899995326995</v>
       </c>
       <c r="D170">
-        <v>0.0781423673033714</v>
+        <v>0.07939827442169189</v>
       </c>
       <c r="E170">
-        <v>0.07900919765233989</v>
+        <v>0.07982438802719111</v>
       </c>
       <c r="F170">
-        <v>360928</v>
+        <v>7064032</v>
       </c>
       <c r="G170">
-        <v>0.07997051134628361</v>
+        <v>0.08017083688275116</v>
       </c>
       <c r="H170">
-        <v>0.08056158795952793</v>
+        <v>0.08030628412961957</v>
       </c>
       <c r="I170">
-        <v>0.08145157744487122</v>
+        <v>0.08017993494868274</v>
       </c>
       <c r="J170">
-        <v>0.08307577017073668</v>
+        <v>0.08068914651190952</v>
       </c>
       <c r="L170">
-        <v>45.22099291821925</v>
+        <v>46.07893642643585</v>
       </c>
       <c r="M170">
-        <v>45.13984402248666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>47.82303754896195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.0790162160992622</v>
+        <v>0.0798305198550224</v>
       </c>
       <c r="C171">
-        <v>0.0791365876793861</v>
+        <v>0.0798494219779968</v>
       </c>
       <c r="D171">
-        <v>0.07811537384986871</v>
+        <v>0.0782141238451004</v>
       </c>
       <c r="E171">
-        <v>0.078277014195919</v>
+        <v>0.07877114415168759</v>
       </c>
       <c r="F171">
-        <v>1382176</v>
+        <v>11058016</v>
       </c>
       <c r="G171">
-        <v>0.07981655705988681</v>
+        <v>0.0800435920890181</v>
       </c>
       <c r="H171">
-        <v>0.08016121909022327</v>
+        <v>0.08026601523160931</v>
       </c>
       <c r="I171">
-        <v>0.08144682447115575</v>
+        <v>0.08014500836531317</v>
       </c>
       <c r="J171">
-        <v>0.08301221048895102</v>
+        <v>0.08066374250713837</v>
       </c>
       <c r="L171">
-        <v>41.20827057091252</v>
+        <v>37.2910151239174</v>
       </c>
       <c r="M171">
-        <v>42.63979329096006</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>41.85613434783836</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.0782766714692115</v>
+        <v>0.07876332849264139</v>
       </c>
       <c r="C172">
-        <v>0.0782875940203666</v>
+        <v>0.0790224000811576</v>
       </c>
       <c r="D172">
-        <v>0.0774266198277473</v>
+        <v>0.0776837393641471</v>
       </c>
       <c r="E172">
-        <v>0.0781542435288429</v>
+        <v>0.0786141455173492</v>
       </c>
       <c r="F172">
-        <v>1953856</v>
+        <v>16273088</v>
       </c>
       <c r="G172">
-        <v>0.07966543764797372</v>
+        <v>0.07991364240068455</v>
       </c>
       <c r="H172">
-        <v>0.07980457879602905</v>
+        <v>0.08026889339089391</v>
       </c>
       <c r="I172">
-        <v>0.08141333634654677</v>
+        <v>0.08009974882006642</v>
       </c>
       <c r="J172">
-        <v>0.08294786655570456</v>
+        <v>0.08063659552714117</v>
       </c>
       <c r="L172">
-        <v>40.52984657184857</v>
+        <v>36.13534116628018</v>
       </c>
       <c r="M172">
-        <v>42.21757076978689</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>41.03425140822545</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.0781639218330383</v>
+        <v>0.078614205121994</v>
       </c>
       <c r="C173">
-        <v>0.0786445289850235</v>
+        <v>0.0791833624243736</v>
       </c>
       <c r="D173">
-        <v>0.0777008906006813</v>
+        <v>0.07856963574886321</v>
       </c>
       <c r="E173">
-        <v>0.0781861469149589</v>
+        <v>0.0788877755403518</v>
       </c>
       <c r="F173">
-        <v>10363680</v>
+        <v>5142464</v>
       </c>
       <c r="G173">
-        <v>0.07953095667224511</v>
+        <v>0.07982038177701793</v>
       </c>
       <c r="H173">
-        <v>0.07955286726355548</v>
+        <v>0.08027304485440249</v>
       </c>
       <c r="I173">
-        <v>0.08137988125284509</v>
+        <v>0.08008494575818377</v>
       </c>
       <c r="J173">
-        <v>0.08288479742139004</v>
+        <v>0.08061343234850821</v>
       </c>
       <c r="L173">
-        <v>40.81470254829237</v>
+        <v>39.79375680092161</v>
       </c>
       <c r="M173">
-        <v>42.37724952420299</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>43.13022085041697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.07819277048110961</v>
+        <v>0.07887408137321469</v>
       </c>
       <c r="C174">
-        <v>0.0784353241324424</v>
+        <v>0.0791523978114128</v>
       </c>
       <c r="D174">
-        <v>0.0772412866353988</v>
+        <v>0.0785216391086578</v>
       </c>
       <c r="E174">
-        <v>0.0773776695132255</v>
+        <v>0.0785216391086578</v>
       </c>
       <c r="F174">
-        <v>2611840</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.0793352032941524</v>
+        <v>0.07970231426171247</v>
       </c>
       <c r="H174">
-        <v>0.07926204763352866</v>
+        <v>0.08024595789611336</v>
       </c>
       <c r="I174">
-        <v>0.08131858209768926</v>
+        <v>0.08004689986507095</v>
       </c>
       <c r="J174">
-        <v>0.08281185532989119</v>
+        <v>0.08058572647778171</v>
       </c>
       <c r="L174">
-        <v>35.91086802126232</v>
+        <v>36.63470420035455</v>
       </c>
       <c r="M174">
-        <v>39.40542511290504</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>41.02868589345374</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.07737360149621959</v>
+        <v>0.0785148218274116</v>
       </c>
       <c r="C175">
-        <v>0.0782122686505317</v>
+        <v>0.07928569614887231</v>
       </c>
       <c r="D175">
-        <v>0.0771927610039711</v>
+        <v>0.07841552793979641</v>
       </c>
       <c r="E175">
-        <v>0.078044481575489</v>
+        <v>0.07903256267309181</v>
       </c>
       <c r="F175">
-        <v>1920352</v>
+        <v>944160</v>
       </c>
       <c r="G175">
-        <v>0.07921786495609208</v>
+        <v>0.07964142775365604</v>
       </c>
       <c r="H175">
-        <v>0.07899812869727608</v>
+        <v>0.0802718739956617</v>
       </c>
       <c r="I175">
-        <v>0.08118167494734124</v>
+        <v>0.08002773175636922</v>
       </c>
       <c r="J175">
-        <v>0.08274871130665408</v>
+        <v>0.08056515477175934</v>
       </c>
       <c r="L175">
-        <v>42.33906180451982</v>
+        <v>43.65654388876395</v>
       </c>
       <c r="M175">
-        <v>42.95847845234555</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>45.05217746139458</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.07805038243532179</v>
+        <v>0.0790186896920204</v>
       </c>
       <c r="C176">
-        <v>0.078194074332714</v>
+        <v>0.0797785297036171</v>
       </c>
       <c r="D176">
-        <v>0.07775749266147609</v>
+        <v>0.0786135345697403</v>
       </c>
       <c r="E176">
-        <v>0.0779427215456962</v>
+        <v>0.0796695724129676</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>7709600</v>
       </c>
       <c r="G176">
-        <v>0.07910194282787428</v>
+        <v>0.079643986359048</v>
       </c>
       <c r="H176">
-        <v>0.07869506031274791</v>
+        <v>0.08022575341165063</v>
       </c>
       <c r="I176">
-        <v>0.08085228055715557</v>
+        <v>0.08002243364850675</v>
       </c>
       <c r="J176">
-        <v>0.08268505581313146</v>
+        <v>0.08055329275376209</v>
       </c>
       <c r="L176">
-        <v>41.62232905387273</v>
+        <v>51.23605113626158</v>
       </c>
       <c r="M176">
-        <v>42.54845355752524</v>
+        <v>49.6634477430803</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7031,37 +6998,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.0779289007186889</v>
+        <v>0.07967051863670339</v>
       </c>
       <c r="C177">
-        <v>0.07837932556867599</v>
+        <v>0.0797134712338447</v>
       </c>
       <c r="D177">
-        <v>0.07759480178356171</v>
+        <v>0.0790660977363586</v>
       </c>
       <c r="E177">
-        <v>0.0780684277415275</v>
+        <v>0.0793144702911377</v>
       </c>
       <c r="F177">
-        <v>617728</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>0.07900798691093365</v>
+        <v>0.07961403035287433</v>
       </c>
       <c r="H177">
-        <v>0.07851464673876758</v>
+        <v>0.08008163496851918</v>
       </c>
       <c r="I177">
-        <v>0.08055864026149109</v>
+        <v>0.07999474654595053</v>
       </c>
       <c r="J177">
-        <v>0.08262390842145459</v>
+        <v>0.08053688450922401</v>
       </c>
       <c r="L177">
-        <v>42.96415407960386</v>
+        <v>47.24986327220642</v>
       </c>
       <c r="M177">
-        <v>43.26880987843128</v>
+        <v>47.28139041723905</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7069,37 +7036,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.0780671760439872</v>
+        <v>0.07932662218809119</v>
       </c>
       <c r="C178">
-        <v>0.0784196332097053</v>
+        <v>0.0799010321497917</v>
       </c>
       <c r="D178">
-        <v>0.0777679309248924</v>
+        <v>0.0792429372668266</v>
       </c>
       <c r="E178">
-        <v>0.0778381898999214</v>
+        <v>0.079775758087635</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>878560</v>
       </c>
       <c r="G178">
-        <v>0.07890164172811436</v>
+        <v>0.07962873287421621</v>
       </c>
       <c r="H178">
-        <v>0.0783901177346706</v>
+        <v>0.07995505854487414</v>
       </c>
       <c r="I178">
-        <v>0.08029254277547196</v>
+        <v>0.07996903285384174</v>
       </c>
       <c r="J178">
-        <v>0.08256052142116939</v>
+        <v>0.0805268033645672</v>
       </c>
       <c r="L178">
-        <v>41.02133885602838</v>
+        <v>52.6351574334663</v>
       </c>
       <c r="M178">
-        <v>42.22453406617314</v>
+        <v>50.59634658776118</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7107,37 +7074,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.0778402686119079</v>
+        <v>0.0797713547945022</v>
       </c>
       <c r="C179">
-        <v>0.0795292556285858</v>
+        <v>0.07985714823007579</v>
       </c>
       <c r="D179">
-        <v>0.0778255686163902</v>
+        <v>0.0794538035988807</v>
       </c>
       <c r="E179">
-        <v>0.0795136988162994</v>
+        <v>0.0797590389847755</v>
       </c>
       <c r="F179">
-        <v>2742000</v>
+        <v>4618880</v>
       </c>
       <c r="G179">
-        <v>0.07895728328158572</v>
+        <v>0.07964057888426705</v>
       </c>
       <c r="H179">
-        <v>0.07831948213279244</v>
+        <v>0.07986828424036499</v>
       </c>
       <c r="I179">
-        <v>0.0800604773064454</v>
+        <v>0.07995348547895745</v>
       </c>
       <c r="J179">
-        <v>0.08252016615487971</v>
+        <v>0.08051663429993421</v>
       </c>
       <c r="L179">
-        <v>56.95647084561565</v>
+        <v>52.41695921961976</v>
       </c>
       <c r="M179">
-        <v>51.41428228862744</v>
+        <v>50.47246861845922</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7145,37 +7112,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.07951070368289941</v>
+        <v>0.0797588005661964</v>
       </c>
       <c r="C180">
-        <v>0.0795476362109184</v>
+        <v>0.0798076167702674</v>
       </c>
       <c r="D180">
-        <v>0.07895930111408229</v>
+        <v>0.07943893224000929</v>
       </c>
       <c r="E180">
-        <v>0.0795070827007293</v>
+        <v>0.0795001685619354</v>
       </c>
       <c r="F180">
-        <v>5858992</v>
+        <v>4220960</v>
       </c>
       <c r="G180">
-        <v>0.0790072650469624</v>
+        <v>0.07962781430950963</v>
       </c>
       <c r="H180">
-        <v>0.07831256166100499</v>
+        <v>0.07975975386798377</v>
       </c>
       <c r="I180">
-        <v>0.07980471452077226</v>
+        <v>0.07993239859739935</v>
       </c>
       <c r="J180">
-        <v>0.08248025776475852</v>
+        <v>0.0805031711775766</v>
       </c>
       <c r="L180">
-        <v>56.88819112393311</v>
+        <v>48.88684118354551</v>
       </c>
       <c r="M180">
-        <v>51.37952936858952</v>
+        <v>48.492739438865</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7183,37 +7150,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.07951401919126511</v>
+        <v>0.0794992223381996</v>
       </c>
       <c r="C181">
-        <v>0.0802792385220527</v>
+        <v>0.0796176195144653</v>
       </c>
       <c r="D181">
-        <v>0.0794923081994056</v>
+        <v>0.0786216333508491</v>
       </c>
       <c r="E181">
-        <v>0.0799846276640892</v>
+        <v>0.0793477222323417</v>
       </c>
       <c r="F181">
-        <v>8208960</v>
+        <v>8208016</v>
       </c>
       <c r="G181">
-        <v>0.07909611619397393</v>
+        <v>0.07960235139340345</v>
       </c>
       <c r="H181">
-        <v>0.07845629975199696</v>
+        <v>0.07965999655425546</v>
       </c>
       <c r="I181">
-        <v>0.07959472239017483</v>
+        <v>0.07992477193474765</v>
       </c>
       <c r="J181">
-        <v>0.08244720306143841</v>
+        <v>0.08048786721803708</v>
       </c>
       <c r="L181">
-        <v>60.71261083589201</v>
+        <v>46.79879943617785</v>
       </c>
       <c r="M181">
-        <v>53.80660481460398</v>
+        <v>47.31574041990708</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7221,37 +7188,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.07998684048652641</v>
+        <v>0.0793429985642433</v>
       </c>
       <c r="C182">
-        <v>0.0802537947893142</v>
+        <v>0.0795287489891052</v>
       </c>
       <c r="D182">
-        <v>0.07966737449169151</v>
+        <v>0.0793429985642433</v>
       </c>
       <c r="E182">
-        <v>0.0798459276556968</v>
+        <v>0.07944471389055251</v>
       </c>
       <c r="F182">
-        <v>4558592</v>
+        <v>621264</v>
       </c>
       <c r="G182">
-        <v>0.07916428087231238</v>
+        <v>0.07958802071132609</v>
       </c>
       <c r="H182">
-        <v>0.0785802166908979</v>
+        <v>0.0795468661934137</v>
       </c>
       <c r="I182">
-        <v>0.07941335166494048</v>
+        <v>0.07995437632004417</v>
       </c>
       <c r="J182">
-        <v>0.08241274908255442</v>
+        <v>0.08047405061767304</v>
       </c>
       <c r="L182">
-        <v>59.00238443457931</v>
+        <v>48.37699358477952</v>
       </c>
       <c r="M182">
-        <v>52.97939061886307</v>
+        <v>48.177565812505</v>
       </c>
     </row>
   </sheetData>
